--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,11 +207,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PageRecordMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestPageNum</t>
+    <t>text:YYYY-MM-DD hh:mm:ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -219,30 +215,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text:1/500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:1..N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:YYYY-MM-DD hh:mm:ss</t>
+    <t>磁盘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_DiskInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:从第几条记录开始取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:返回记录个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text：后台直接原数据返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>status
 message
-RecordsTotal:记录总个数
-CurentPageNum:当前页编号
-CurrentPageRecordsNum:当前页记录个数
+recordsFiltered:记录总个数
+draw:直接返回页面给的值
+recordsTotal：同recordsFiltered
 data:
     {
      fileName:最大100个字符
      modifyTime:修改日期，格式
        YYYY-MM-DD hh:mm:ss
      sizeMB:
+     url:
      },…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_NormalUserMgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SuperUserMgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:1-20字节</t>
+  </si>
+  <si>
+    <t>text:1-20字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemTimeGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemTimeSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text：YYYY-MM-DD hh:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorrectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message
+currentTime:YYYY-MM-DD hh:mm:ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -355,12 +451,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,48 +481,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,6 +555,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,11 +943,11 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="108.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="108.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -830,10 +961,10 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -842,522 +973,697 @@
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="20"/>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="20"/>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="21"/>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="4" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="B36" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="52">
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F41"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="H30:H34"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="A5:A24"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="E15:E24"/>
+    <mergeCell ref="F15:F24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
     <mergeCell ref="H5:H9"/>
     <mergeCell ref="H10:H14"/>
     <mergeCell ref="H15:H24"/>
@@ -1365,31 +1671,28 @@
     <mergeCell ref="G10:G14"/>
     <mergeCell ref="G15:G24"/>
     <mergeCell ref="F5:F9"/>
+    <mergeCell ref="A30:A35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="E15:E24"/>
-    <mergeCell ref="F15:F24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="A5:A24"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="B30:B35"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,158 @@
   </si>
   <si>
     <t>text：后台直接原数据返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_NormalUserMgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SuperUserMgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:1-20字节</t>
+  </si>
+  <si>
+    <t>text:1-20字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemTimeGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemTimeSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text：YYYY-MM-DD hh:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorrectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message
+currentTime:YYYY-MM-DD hh:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_GetVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message
+LogicVersion
+CfgMgrVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_UpdateLogicFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_UpdateCfgMgrFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_FactoryReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_Reboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_LogLookUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogType</t>
+  </si>
+  <si>
+    <t>Significance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>all、user或system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all、general或key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,90 +415,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_NormalUserMgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_SuperUserMgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:1-20字节</t>
-  </si>
-  <si>
-    <t>text:1-20字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status
-message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status
-message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_SystemInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_SystemTimeGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_SystemTimeSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text：YYYY-MM-DD hh:mm:ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CorrectTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status
 message
-currentTime:YYYY-MM-DD hh:mm:ss</t>
+recordsFiltered:记录总个数
+draw:直接返回页面给的值
+recordsTotal：同recordsFiltered
+data:
+    {
+     LogTime:
+     LogType:
+     Significance:
+     content:
+     },…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +464,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,23 +628,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,11 +670,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,7 +814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,10 +846,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,7 +880,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -931,772 +1055,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="108.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="35.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="108.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="2:10" ht="3" customHeight="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="29" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="2:10">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="D5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="H5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="26" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="2:10">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="4" t="s">
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="4" t="s">
+      <c r="F7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="4" t="s">
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="H10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="4" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="4" t="s">
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="4" t="s">
+      <c r="F12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="4" t="s">
+      <c r="F13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16" t="s">
+      <c r="F14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="H15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="4" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="4" t="s">
+      <c r="F16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="4" t="s">
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="4" t="s">
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="4" t="s">
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="4" t="s">
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="4" t="s">
+      <c r="F21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="4" t="s">
+      <c r="F22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="4" t="s">
+      <c r="F23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="F24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="21">
+        <v>3</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="D25" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="G25" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="21">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="2:10" ht="33" customHeight="1">
+      <c r="B30" s="21">
+        <v>5</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" ht="33" customHeight="1">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" ht="33" customHeight="1">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" ht="33" customHeight="1">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" ht="33" customHeight="1">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" ht="33" customHeight="1">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="16">
+        <v>6</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="21">
+        <v>7</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="38"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="38"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="38"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="16">
+        <v>8</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="2:10" ht="40.5">
+      <c r="B43" s="21">
+        <v>9</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="2:10" ht="27">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="2:10" ht="54">
+      <c r="B45" s="21">
+        <v>10</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" ht="27">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" ht="27">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" ht="27">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" ht="27">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" ht="24" customHeight="1">
+      <c r="B50" s="21">
+        <v>11</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" ht="24" customHeight="1">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" ht="24" customHeight="1">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="9" t="s">
+      <c r="G52" s="25"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" ht="24" customHeight="1">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" ht="24" customHeight="1">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="9" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" ht="24" customHeight="1">
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="9" t="s">
+      <c r="F55" s="20"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" ht="24" customHeight="1">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="13"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="16">
+        <v>12</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="68">
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C37:C41"/>
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="E15:E24"/>
-    <mergeCell ref="F15:F24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="A5:A24"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin"/>
+    <hyperlink ref="J3" r:id="rId1" display="http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,18 +119,10 @@
     <t>Lan2_Mac</t>
   </si>
   <si>
-    <t>Function_NetConfigSave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Form_Lan1Test&amp;Lan1_Auto="false"&amp;Lan1_IP=192.168.1.30&amp;Lan1_Mask=255.255.255.0&amp;Lan1_GateWay=192.168.1.1&amp;Lan1_Mac=00-01-6C-06-A6-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待测试</t>
   </si>
   <si>
@@ -178,23 +170,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_FileLookUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:1/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,10 +212,6 @@
   </si>
   <si>
     <t>text:从第几条记录开始取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:返回记录个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,22 +368,6 @@
   </si>
   <si>
     <t>all、general或key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status
-message
-recordsFiltered:记录总个数
-draw:直接返回页面给的值
-recordsTotal：同recordsFiltered
-data:
-    {
-     fileName:最大100个字符
-     modifyTime:修改日期，格式
-       YYYY-MM-DD hh:mm:ss
-     sizeMB:
-     url:
-     },…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -437,12 +393,68 @@
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>//192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Form_Lan1Test&amp;Lan1_Auto="false"&amp;Lan1_IP=192.168.1.30&amp;Lan1_Mask=255.255.255.0&amp;Lan1_GateWay=192.168.1.1&amp;Lan1_Mac=00-01-6C-06-A6-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Lan2Test&amp;Lan2_Auto="false"&amp;Lan2_IP=192.168.1.30&amp;Lan2_Mask=255.255.255.0&amp;Lan2_GateWay=192.168.1.1&amp;Lan2_Mac=00-01-6C-06-A6-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_NetConfigSave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+recordsFiltered:记录总个数
+draw:直接返回页面给的值
+recordsTotal：同recordsFiltered
+data:[
+    {
+     fileName:最大100个字符
+     modifyTime:修改日期，格式
+       YYYY-MM-DD hh:mm:ss
+     sizeMB:
+     url:
+     },…
+    ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:0/1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:返回记录个数(0-100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_NetConfigSave&amp;Lan1_Auto="false"&amp;Lan1_IP=192.168.1.30&amp;Lan1_Mask=255.255.255.0&amp;Lan1_GateWay=192.168.1.1&amp;Lan1_Mac=00-01-6C-06-A6-29&amp;Lan2_Auto="false"&amp;Lan2_IP=192.168.1.30&amp;Lan2_Mask=255.255.255.0&amp;Lan2_GateWay=192.168.1.1&amp;Lan2_Mac=00-01-6C-06-A6-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_FileLookUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileLookUp&amp;NetNumber=1&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-10-12 12:00:00&amp;start=50&amp;size=20&amp;draw=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +644,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -640,27 +658,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,21 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,7 +826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -846,9 +858,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,6 +893,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1055,14 +1069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="3.375" customWidth="1"/>
@@ -1076,10 +1090,10 @@
     <col min="10" max="10" width="108.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="3" customHeight="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1106,14 +1120,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="22">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1122,40 +1136,40 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="21">
+      <c r="G4" s="30"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="23">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1164,81 +1178,81 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="31" t="s">
+      <c r="G5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1247,80 +1261,82 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="G10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>27</v>
+      <c r="G14" s="30"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -1328,718 +1344,724 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="G15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="21">
+      <c r="G24" s="30"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="23">
         <v>3</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="F25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="23">
+        <v>4</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="21">
-        <v>4</v>
-      </c>
-      <c r="C28" s="21" t="s">
+      <c r="G28" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="23">
+        <v>5</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="30" t="s">
+      <c r="F32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="2:10" ht="33" customHeight="1">
-      <c r="B30" s="21">
-        <v>5</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="2:10" ht="33" customHeight="1">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="F34" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-    </row>
-    <row r="32" spans="2:10" ht="33" customHeight="1">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="2:10" ht="33" customHeight="1">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="2:10" ht="33" customHeight="1">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="2:10" ht="33" customHeight="1">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="F35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="2:10">
+        <v>51</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="16">
         <v>6</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="35"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="21">
-        <v>7</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="21" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="23">
+        <v>7</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>68</v>
-      </c>
       <c r="F39" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="G40" s="34"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="2:10">
+        <v>57</v>
+      </c>
+      <c r="G41" s="34"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="16">
         <v>8</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F42" s="13"/>
-      <c r="G42" s="35"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="2:10" ht="40.5">
-      <c r="B43" s="21">
+    <row r="43" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="23">
         <v>9</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>72</v>
+      <c r="C43" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="2:10" ht="27">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+    <row r="44" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F44" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="2:10" ht="54">
-      <c r="B45" s="21">
+    <row r="45" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B45" s="23">
         <v>10</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>78</v>
+      <c r="C45" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" ht="27">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+    <row r="46" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" ht="27">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+    <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" ht="27">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
+    <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" ht="27">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+    <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" ht="24" customHeight="1">
-      <c r="B50" s="21">
+    <row r="50" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="23">
         <v>11</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-    </row>
-    <row r="51" spans="2:10" ht="24" customHeight="1">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-    </row>
-    <row r="52" spans="2:10" ht="24" customHeight="1">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="36" t="s">
-        <v>92</v>
+      <c r="G51" s="27"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="F52" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-    </row>
-    <row r="53" spans="2:10" ht="24" customHeight="1">
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-    </row>
-    <row r="54" spans="2:10" ht="24" customHeight="1">
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F54" s="20"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-    </row>
-    <row r="55" spans="2:10" ht="24" customHeight="1">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-    </row>
-    <row r="56" spans="2:10" ht="24" customHeight="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F56" s="19"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="G56" s="28"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B57" s="16">
         <v>12</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
@@ -2051,6 +2073,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="I50:I56"/>
     <mergeCell ref="J50:J56"/>
     <mergeCell ref="B3:B4"/>
@@ -2067,58 +2141,6 @@
     <mergeCell ref="C50:C56"/>
     <mergeCell ref="D50:D56"/>
     <mergeCell ref="H50:H56"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>过滤控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lan2_CaptureServiceStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,23 +426,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Function_FileLookUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_NetConfigSave&amp;Lan1_Auto="false"&amp;Lan1_IP=192.168.1.30&amp;Lan1_Mask=255.255.255.0&amp;Lan1_GateWay=192.168.1.1&amp;Lan1_Mac=00-01-6C-06-A6-29&amp;Lan2_Auto="false"&amp;Lan2_IP=192.168.1.30&amp;Lan2_Mask=255.255.255.0&amp;Lan2_GateWay=192.168.1.1&amp;Lan2_Mac=00-01-6C-06-A6-29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_FileLookUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileLookUp&amp;NetNumber=1&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-10-12 12:00:00&amp;start=50&amp;size=20&amp;draw=1</t>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_NetCapture&amp;Lan1_CaptureServiceStatus="true"&amp;Lan1_AutoUpLoadEnable="true"&amp;Lan1_AutoUpLoadPath=/testpath&amp;Lan2_CaptureServiceStatus="true"&amp;Lan2_AutoUpLoadEnable="true"&amp;Lan2_AutoUpLoadPath=/testpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lan1_NetFilterServiceStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lan2_NetFilterServiceStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_NetFilter&amp;Lan1_NetFilterServiceStatus="true"&amp;Lan2_NetFilterServiceStatus="true"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileLookUp&amp;NetNumber=1&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-10-12 12:00:00&amp;start=50&amp;length=20&amp;draw=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,50 +664,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1072,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:H35"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,7 +1105,7 @@
     <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1121,13 +1133,13 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="24">
+      <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1136,31 +1148,31 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>42</v>
+      <c r="G3" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="32" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="23">
@@ -1178,15 +1190,15 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="23"/>
-      <c r="J5" s="36" t="s">
-        <v>92</v>
+      <c r="J5" s="35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -1199,10 +1211,10 @@
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="23"/>
@@ -1214,10 +1226,10 @@
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="23"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
@@ -1229,10 +1241,10 @@
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="37"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="23"/>
@@ -1244,10 +1256,10 @@
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="38"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="23"/>
@@ -1261,15 +1273,15 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -1282,8 +1294,8 @@
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
@@ -1297,8 +1309,8 @@
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
     </row>
@@ -1312,8 +1324,8 @@
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
@@ -1327,8 +1339,8 @@
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
@@ -1336,7 +1348,7 @@
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -1344,15 +1356,15 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
@@ -1365,8 +1377,8 @@
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
     </row>
@@ -1380,8 +1392,8 @@
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
     </row>
@@ -1395,8 +1407,8 @@
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
     </row>
@@ -1410,8 +1422,8 @@
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
     </row>
@@ -1425,8 +1437,8 @@
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
     </row>
@@ -1440,8 +1452,8 @@
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
@@ -1455,8 +1467,8 @@
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
     </row>
@@ -1470,8 +1482,8 @@
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
     </row>
@@ -1485,8 +1497,8 @@
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
     </row>
@@ -1506,14 +1518,16 @@
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>59</v>
+      <c r="G25" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="J25" s="23" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="23"/>
@@ -1525,7 +1539,7 @@
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="27"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
@@ -1540,7 +1554,7 @@
       <c r="F27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="27"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
@@ -1556,60 +1570,62 @@
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>42</v>
+      <c r="G28" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="H28" s="23" t="s">
         <v>28</v>
       </c>
       <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="J28" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="11" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="23">
         <v>5</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="26" t="s">
         <v>95</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="H30" s="23" t="s">
         <v>28</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1617,12 +1633,12 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="G31" s="34"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -1632,12 +1648,12 @@
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
       <c r="E32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -1647,12 +1663,12 @@
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="G33" s="34"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -1662,12 +1678,12 @@
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="26"/>
+        <v>96</v>
+      </c>
+      <c r="G34" s="34"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -1677,12 +1693,12 @@
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="G35" s="34"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
@@ -1692,10 +1708,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="13"/>
@@ -1709,19 +1725,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>53</v>
-      </c>
       <c r="E37" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -1732,12 +1748,12 @@
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="34"/>
+        <v>57</v>
+      </c>
+      <c r="G38" s="25"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -1746,16 +1762,16 @@
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -1766,12 +1782,12 @@
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="34"/>
+        <v>56</v>
+      </c>
+      <c r="G40" s="25"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
@@ -1781,12 +1797,12 @@
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
       <c r="E41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="34"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
@@ -1796,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="E42" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="21"/>
@@ -1815,17 +1831,17 @@
         <v>9</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -1835,16 +1851,16 @@
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -1855,19 +1871,19 @@
         <v>10</v>
       </c>
       <c r="C45" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="F45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="G45" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
@@ -1877,16 +1893,16 @@
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
       <c r="D46" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="G46" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -1896,16 +1912,16 @@
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E47" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="G47" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
@@ -1915,16 +1931,16 @@
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
       <c r="D48" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E48" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="G48" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
@@ -1934,16 +1950,16 @@
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="G49" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
@@ -1954,19 +1970,19 @@
         <v>11</v>
       </c>
       <c r="C50" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="E50" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="F50" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
@@ -1977,12 +1993,12 @@
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="27"/>
+        <v>87</v>
+      </c>
+      <c r="G51" s="29"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
@@ -1992,12 +2008,12 @@
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="27"/>
+        <v>40</v>
+      </c>
+      <c r="G52" s="29"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
@@ -2007,12 +2023,12 @@
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="27"/>
+        <v>40</v>
+      </c>
+      <c r="G53" s="29"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
@@ -2022,10 +2038,10 @@
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F54" s="20"/>
-      <c r="G54" s="27"/>
+      <c r="G54" s="29"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -2035,33 +2051,33 @@
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="27"/>
+      <c r="G55" s="29"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
     </row>
     <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F56" s="19"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B57" s="16">
         <v>12</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
@@ -2073,15 +2089,49 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="D37:D38"/>
@@ -2098,49 +2148,15 @@
     <mergeCell ref="I25:I27"/>
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="J10:J14"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I50:I56"/>
-    <mergeCell ref="J50:J56"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,15 +219,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_NormalUserMgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Function_SuperUserMgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,10 +241,6 @@
   <si>
     <t>status
 message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,7 +446,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AdminKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileLookUp&amp;NetNumber=1&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-10-12 12:00:00&amp;start=50&amp;length=20&amp;draw=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_NormalUserMgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_FileUpLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:小于50字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_NormalUserMgr&amp;PrimaryKey=user&amp;NewKey=123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SuperUserMgr&amp;UserName=admin&amp;AdminKey=123456&amp;NewKey=qqqwww</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileUpLoad&amp;FileName=20191012000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file stream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,38 +701,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,8 +754,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1082,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J57"/>
+  <dimension ref="B1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:J35"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,7 +1153,7 @@
     <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1133,13 +1181,13 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="26">
+      <c r="B3" s="27">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1148,40 +1196,40 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="29"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="23">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1190,81 +1238,81 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="35" t="s">
-        <v>91</v>
+      <c r="I5" s="26"/>
+      <c r="J5" s="39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="36"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="36"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="36"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="37"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1273,82 +1321,82 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23" t="s">
-        <v>92</v>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>93</v>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -1356,160 +1404,160 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23" t="s">
-        <v>100</v>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="23">
+      <c r="B25" s="26">
         <v>3</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1518,602 +1566,635 @@
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="23" t="s">
+      <c r="G25" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
-        <v>101</v>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="23">
+      <c r="B28" s="26">
         <v>4</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23" t="s">
-        <v>104</v>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="23">
+      <c r="B30" s="27">
         <v>5</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>97</v>
+      <c r="D30" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23" t="s">
+      <c r="I30" s="26"/>
+      <c r="J30" s="26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+        <v>93</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="16">
+      <c r="G35" s="29"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="16">
         <v>6</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="23">
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="26">
         <v>7</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C38" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D38" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="37"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E40" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="G40" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="37"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="16">
+        <v>8</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="16">
-        <v>8</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="23">
-        <v>9</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="G43" s="21"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+    <row r="44" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="26">
+        <v>9</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="D44" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B45" s="23">
+    <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B46" s="26">
         <v>10</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C46" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="16" t="s">
+      <c r="G46" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="20"/>
     </row>
     <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="23">
+    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="26">
         <v>11</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C51" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="F52" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-    </row>
-    <row r="51" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-    </row>
-    <row r="52" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="16" t="s">
+      <c r="G53" s="30"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="30"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+    </row>
+    <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-    </row>
-    <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
-      <c r="E56" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="38"/>
+      <c r="E56" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="30"/>
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="16">
+    <row r="57" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="16">
         <v>12</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="20"/>
+      <c r="C58" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="I50:I56"/>
-    <mergeCell ref="J50:J56"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
@@ -2127,42 +2208,38 @@
     <mergeCell ref="G30:G35"/>
     <mergeCell ref="H30:H35"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I51:I57"/>
+    <mergeCell ref="J51:J57"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="H51:H57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" display="http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin"/>
+    <hyperlink ref="J38" r:id="rId2"/>
+    <hyperlink ref="J40" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9090"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>draw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_SystemTimeGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,16 +261,6 @@
   </si>
   <si>
     <t>text：YYYY-MM-DD hh:mm:ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CorrectTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status
-message
-currentTime:YYYY-MM-DD hh:mm:ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,13 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status
-message
-LogicVersion
-CfgMgrVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Function_UpdateLogicFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_FactoryReset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Function_Reboot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,39 +305,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LogType</t>
-  </si>
-  <si>
-    <t>Significance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
     <t>all、user或system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>all、general或key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status
-message
-recordsFiltered:记录总个数
-draw:直接返回页面给的值
-recordsTotal：同recordsFiltered
-data:
-    {
-     LogTime:
-     LogType:
-     Significance:
-     content:
-     },…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,12 +440,70 @@
     <t>file stream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Function_SystemTimeGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentTime:YYYY-MM-DD hh:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorrectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicVersion
+CfgMgrVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_FactoryReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordsFiltered:记录总个数
+draw:直接返回页面给的值
+recordsTotal：同recordsFiltered
+data:
+    {
+     LogTime:
+     LogType:
+     Significance:
+     content:
+     },…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Significance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,12 +525,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -629,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,97 +660,100 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,7 +884,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -918,10 +916,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -953,7 +950,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1129,14 +1125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="3.375" customWidth="1"/>
@@ -1150,10 +1146,10 @@
     <col min="10" max="10" width="108.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
-        <v>87</v>
+    <row r="1" spans="2:10" ht="3" customHeight="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1180,7 +1176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3" s="27">
         <v>1</v>
       </c>
@@ -1196,40 +1192,40 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="26">
+      <c r="G4" s="38"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1238,81 +1234,81 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="36" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="41"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="41"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="41"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1321,82 +1317,82 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="36" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26" t="s">
-        <v>90</v>
+      <c r="G14" s="38"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -1404,160 +1400,160 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="36" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="26">
+      <c r="G24" s="38"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="30">
         <v>3</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1566,614 +1562,679 @@
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="26" t="s">
+      <c r="G25" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="26">
+      <c r="G27" s="35"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="30">
         <v>4</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I28" s="30"/>
+      <c r="J28" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="31"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="27.75" customHeight="1">
       <c r="B30" s="27">
         <v>5</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="26"/>
+    </row>
+    <row r="31" spans="2:10" ht="27.75" customHeight="1">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="26"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="2:10" ht="27.75" customHeight="1">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="26"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="2:10" ht="27.75" customHeight="1">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="2:10" ht="27.75" customHeight="1">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="39"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="2:10" ht="35.25" customHeight="1">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="9" t="s">
+      <c r="G35" s="39"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="2:10" ht="35.25" customHeight="1">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="15">
+        <v>6</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="30">
+        <v>7</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="15">
+        <v>8</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="30">
+        <v>9</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="2:10" ht="27">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="2:10" ht="27">
+      <c r="B46" s="30">
+        <v>10</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="2:10" ht="27">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="2:10" ht="27">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="2:10" ht="27">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="2:10" ht="27">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="2:10" ht="24" customHeight="1">
+      <c r="B51" s="30">
+        <v>11</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+    </row>
+    <row r="52" spans="2:10" ht="24" customHeight="1">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+    </row>
+    <row r="53" spans="2:10" ht="24" customHeight="1">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="35"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+    </row>
+    <row r="54" spans="2:10" ht="24" customHeight="1">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+    </row>
+    <row r="55" spans="2:10" ht="24" customHeight="1">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+    </row>
+    <row r="56" spans="2:10" ht="24" customHeight="1">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+    </row>
+    <row r="57" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="16">
-        <v>6</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="26">
-        <v>7</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="16">
-        <v>8</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B44" s="26">
-        <v>9</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B46" s="26">
-        <v>10</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="16" t="s">
+      <c r="F57" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="35"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+    </row>
+    <row r="58" spans="2:10" ht="6" hidden="1" customHeight="1">
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="15">
+        <v>12</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="26">
-        <v>11</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="30"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="30"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-    </row>
-    <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-    </row>
-    <row r="57" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="16">
-        <v>12</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="20"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="H51:H58"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="D38:D39"/>
@@ -2190,48 +2251,18 @@
     <mergeCell ref="I25:I27"/>
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="J10:J14"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H42"/>
     <mergeCell ref="G30:G35"/>
     <mergeCell ref="H30:H35"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="J51:J57"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="H51:H57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="122">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_SystemTimeSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +261,6 @@
   </si>
   <si>
     <t>高级管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_GetVersion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -401,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileLookUp&amp;NetNumber=1&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-10-12 12:00:00&amp;start=50&amp;length=20&amp;draw=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Function_NormalUserMgr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,10 +413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SuperUserMgr&amp;UserName=admin&amp;AdminKey=123456&amp;NewKey=qqqwww</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileUpLoad&amp;FileName=20191012000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,15 +425,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_SystemTimeGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>currentTime:YYYY-MM-DD hh:mm:ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CorrectTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,10 +435,6 @@
   <si>
     <t>LogicVersion
 CfgMgrVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_FactoryReset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,23 +459,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SuperUserMgr&amp;UserName=admin&amp;AdminKey=123456&amp;NewKey=qqqwww</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemTimeSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemTimeGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SystemTimeGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorrectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileLookUp&amp;NetNumber=1&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-10-12 12:00:00&amp;start=50&amp;length=20&amp;draw=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SystemTimeSet&amp;CorrectTime=2019-10-14 18:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_GetVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_GetVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_FactoryReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FactoryReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Reboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Significance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_LogLookUp&amp;LogType=all&amp;Significance=all&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-11-12 12:00:00&amp;start=15&amp;length=50&amp;draw=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,56 +728,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,7 +911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,9 +943,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,6 +978,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1125,14 +1154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="3.375" customWidth="1"/>
@@ -1146,10 +1175,10 @@
     <col min="10" max="10" width="108.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="3" customHeight="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1176,14 +1205,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="27">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1192,40 +1221,40 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="34" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="35"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="30">
+      <c r="G4" s="36"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1234,81 +1263,81 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="41"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="41"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1317,82 +1346,82 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
-        <v>79</v>
+      <c r="G14" s="36"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -1400,160 +1429,160 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="30">
+      <c r="G24" s="36"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="28">
         <v>3</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1562,215 +1591,215 @@
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="30">
+      <c r="G27" s="32"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="28">
         <v>4</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B30" s="27">
+      <c r="G29" s="33"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="29">
         <v>5</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-    </row>
-    <row r="32" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-    </row>
-    <row r="34" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="24" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-    </row>
-    <row r="35" spans="2:10" ht="35.25" customHeight="1">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="30"/>
+        <v>80</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-    </row>
-    <row r="36" spans="2:10" ht="35.25" customHeight="1">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F36" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="15">
         <v>6</v>
       </c>
@@ -1787,102 +1816,102 @@
       <c r="I37" s="13"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="30">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="28">
         <v>7</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>95</v>
+      <c r="D38" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="G39" s="39"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="G42" s="39"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="15">
         <v>8</v>
       </c>
@@ -1893,7 +1922,7 @@
         <v>58</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="20"/>
@@ -1901,289 +1930,301 @@
       <c r="I43" s="13"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="30">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="28">
         <v>9</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="28" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I44" s="13"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="2:10" ht="27">
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="J44" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="13" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F45" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B46" s="28">
+        <v>10</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="2:10" ht="27">
-      <c r="B46" s="30">
-        <v>10</v>
-      </c>
-      <c r="C46" s="30" t="s">
+      <c r="D46" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="F46" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>66</v>
-      </c>
       <c r="G46" s="25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H46" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I46" s="15"/>
-      <c r="J46" s="19"/>
-    </row>
-    <row r="47" spans="2:10" ht="27">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="J46" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="2:10" ht="27">
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+    <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="2:10" ht="27">
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+    <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="24" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="H49" s="24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I49" s="15"/>
-      <c r="J49" s="19"/>
-    </row>
-    <row r="50" spans="2:10" ht="27">
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
+      <c r="J49" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I50" s="15"/>
-      <c r="J50" s="19"/>
-    </row>
-    <row r="51" spans="2:10" ht="24" customHeight="1">
-      <c r="B51" s="30">
+      <c r="J50" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="28">
         <v>11</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="G51" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-    </row>
-    <row r="52" spans="2:10" ht="24" customHeight="1">
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53" spans="2:10" ht="24" customHeight="1">
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+    </row>
+    <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="2:10" ht="24" customHeight="1">
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+    </row>
+    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55" spans="2:10" ht="24" customHeight="1">
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+    </row>
+    <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="24" t="s">
         <v>46</v>
       </c>
       <c r="F55" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-    </row>
-    <row r="56" spans="2:10" ht="24" customHeight="1">
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+    </row>
+    <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="24" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-    </row>
-    <row r="57" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
+        <v>80</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+    </row>
+    <row r="57" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="24" t="s">
         <v>47</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-    </row>
-    <row r="58" spans="2:10" ht="6" hidden="1" customHeight="1">
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+    </row>
+    <row r="58" spans="2:10" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F58" s="18"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="G58" s="33"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B59" s="15">
         <v>12</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -2195,6 +2236,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="I51:I58"/>
     <mergeCell ref="J51:J58"/>
     <mergeCell ref="B3:B4"/>
@@ -2211,66 +2304,19 @@
     <mergeCell ref="D51:D58"/>
     <mergeCell ref="H51:H58"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" display="http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin"/>
     <hyperlink ref="J38" r:id="rId2"/>
     <hyperlink ref="J40" r:id="rId3"/>
+    <hyperlink ref="J44" r:id="rId4"/>
+    <hyperlink ref="J45" r:id="rId5"/>
+    <hyperlink ref="J46" r:id="rId6"/>
+    <hyperlink ref="J49" r:id="rId7"/>
+    <hyperlink ref="J50" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="136">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_DiskInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +237,6 @@
   </si>
   <si>
     <t>系统信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_SystemInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,6 +434,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LogType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SuperUserMgr&amp;UserName=admin&amp;AdminKey=123456&amp;NewKey=qqqwww</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemTimeSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemTimeGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SystemTimeGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorrectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileLookUp&amp;NetNumber=1&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-10-12 12:00:00&amp;start=50&amp;length=20&amp;draw=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SystemTimeSet&amp;CorrectTime=2019-10-14 18:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_GetVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_GetVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_FactoryReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FactoryReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Reboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Significance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_Lan1StatisticsClear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_Lan2StatisticsClear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_LogExport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_DiskInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form Factor://形状特征
+Nominal Media Rotation Rate://转速
+cache buffer size://缓存
+Model Number://型号
+Serial Number:序列号 
+Firmware Revision:固件版本
+Temperature://硬盘温度
+Size://容量
+Used://已用
+Avail://可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>recordsFiltered:记录总个数
 draw:直接返回页面给的值
 recordsTotal：同recordsFiltered
@@ -455,71 +557,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LogType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SuperUserMgr&amp;UserName=admin&amp;AdminKey=123456&amp;NewKey=qqqwww</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_SystemTimeSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_SystemTimeGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SystemTimeGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CorrectTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FileLookUp&amp;NetNumber=1&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-10-12 12:00:00&amp;start=50&amp;length=20&amp;draw=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SystemTimeSet&amp;CorrectTime=2019-10-14 18:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_GetVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_GetVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_FactoryReset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FactoryReset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Reboot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Significance</t>
+    <t>recordsFiltered:查询结果记录总个数
+url://返回查询结果文件存放路径，例如：tmp/logSearchResult.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_LogLookUp&amp;LogType=all&amp;Significance=all&amp;StartTime=2019-10-11 12:00:00&amp;EndTime=2019-11-12 12:00:00&amp;start=15&amp;length=50&amp;draw=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_LogExport&amp;LogType=all&amp;Significance=all&amp;StartTime=2019-10-11%2012:00:00&amp;EndTime=2019-11-12%2012:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_SystemInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HwVer:硬件版本
+SN:序列号
+CfgMgrVersion:配置管理单元版本
+CfgMgrLastUpdateTime:配置管理单元最近一次更新时间
+LogicVersion:数据处理单元版本 
+LogicLastUpdateTime:数据处理单元最近一次更新时间
+CurrentTime:系统当前时间
+RunningTime:运行时长（单位秒）
+Lan1LinkStatus:0-link down, 1-link up
+Lan1LinkSpeed:连接速度(单位bps)
+Lan1RecvPackages:收包数量
+Lan1SendPackages:发包数量
+Lan2LinkStatus:link状态
+Lan2LinkSpeed:连接速度
+Lan2RecvPackages:收包数量
+Lan2SendPackages:发包数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_SystemInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_DiskInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,92 +777,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J59"/>
+  <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:I58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1172,13 +1266,13 @@
     <col min="7" max="7" width="35.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="108.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="108.375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1201,18 +1295,18 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1221,14 +1315,14 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1242,19 +1336,19 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="28"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="28">
+      <c r="B5" s="31">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1263,81 +1357,81 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="41" t="s">
-        <v>75</v>
+      <c r="I5" s="31"/>
+      <c r="J5" s="44" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="42"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="42"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="42"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="43"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1346,82 +1440,82 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28" t="s">
-        <v>76</v>
+      <c r="I10" s="31"/>
+      <c r="J10" s="33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="30"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28" t="s">
-        <v>77</v>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -1429,160 +1523,160 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28" t="s">
-        <v>84</v>
+      <c r="I15" s="31"/>
+      <c r="J15" s="33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="28">
+      <c r="B25" s="31">
         <v>3</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1591,215 +1685,215 @@
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="28" t="s">
+      <c r="G25" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28" t="s">
-        <v>85</v>
+      <c r="I25" s="31"/>
+      <c r="J25" s="33" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="28">
+      <c r="B28" s="31">
         <v>4</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="31" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28" t="s">
-        <v>88</v>
+      <c r="I28" s="31"/>
+      <c r="J28" s="33" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>5</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-    </row>
-    <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="22" t="s">
+      <c r="G36" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:10" ht="135" x14ac:dyDescent="0.15">
       <c r="B37" s="15">
         <v>6</v>
       </c>
@@ -1807,447 +1901,589 @@
         <v>44</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="31">
+        <v>7</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="2:10" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="28">
+        <v>8</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="31">
+        <v>9</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B48" s="31">
+        <v>10</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="15"/>
+      <c r="J52" s="48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="28">
+        <v>11</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="31"/>
+      <c r="J53" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="33"/>
+    </row>
+    <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="28">
-        <v>7</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="15">
-        <v>8</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="28">
-        <v>9</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="28">
-        <v>10</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="19"/>
-    </row>
-    <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="19"/>
-    </row>
-    <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="28">
-        <v>11</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-    </row>
-    <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-    </row>
-    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="32"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-    </row>
-    <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-    </row>
-    <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-    </row>
-    <row r="57" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="24" t="s">
+      <c r="F57" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="32"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-    </row>
-    <row r="58" spans="2:10" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G57" s="35"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="15">
+      <c r="D58" s="31"/>
+      <c r="E58" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="33"/>
+    </row>
+    <row r="59" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="33"/>
+    </row>
+    <row r="60" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" s="28"/>
+      <c r="J60" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="37"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="38"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B64" s="15">
         <v>12</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="19"/>
+      <c r="C64" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
+  <mergeCells count="75">
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="I53:I59"/>
+    <mergeCell ref="J53:J59"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="G53:G59"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="H53:H59"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="D38:D39"/>
@@ -2264,59 +2500,38 @@
     <mergeCell ref="I25:I27"/>
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="J10:J14"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
     <mergeCell ref="C30:C36"/>
     <mergeCell ref="I30:I35"/>
     <mergeCell ref="J30:J35"/>
     <mergeCell ref="D30:D35"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="H51:H58"/>
-    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" display="http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin"/>
     <hyperlink ref="J38" r:id="rId2"/>
     <hyperlink ref="J40" r:id="rId3"/>
-    <hyperlink ref="J44" r:id="rId4"/>
-    <hyperlink ref="J45" r:id="rId5"/>
-    <hyperlink ref="J46" r:id="rId6"/>
-    <hyperlink ref="J49" r:id="rId7"/>
-    <hyperlink ref="J50" r:id="rId8"/>
+    <hyperlink ref="J46" r:id="rId4"/>
+    <hyperlink ref="J47" r:id="rId5"/>
+    <hyperlink ref="J48" r:id="rId6"/>
+    <hyperlink ref="J51" r:id="rId7"/>
+    <hyperlink ref="J52" r:id="rId8"/>
+    <hyperlink ref="J60" r:id="rId9"/>
+    <hyperlink ref="J43" r:id="rId10"/>
+    <hyperlink ref="J37" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="136">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,14 +266,6 @@
   <si>
     <t>status
 message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_UpdateLogicFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_UpdateCfgMgrFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,19 +520,6 @@
   </si>
   <si>
     <t>Function_DiskInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Form Factor://形状特征
-Nominal Media Rotation Rate://转速
-cache buffer size://缓存
-Model Number://型号
-Serial Number:序列号 
-Firmware Revision:固件版本
-Temperature://硬盘温度
-Size://容量
-Used://已用
-Avail://可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,6 +581,27 @@
   </si>
   <si>
     <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_DiskInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_UpdateLogicFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_UpdateCfgMgrFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormFactor://形状特征
+NominalMediaRotationRate://转速
+CacheBufferSize://缓存
+ModelNumber://型号
+SerialNumber:序列号 
+FirmwareRevision:固件版本
+Temperature://硬盘温度
+Size://容量
+Used://已用
+Avail://可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,6 +813,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,13 +843,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -838,29 +859,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -868,12 +877,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1266,13 +1269,13 @@
     <col min="7" max="7" width="35.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="108.375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="108.375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1295,18 +1298,18 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="28">
+      <c r="B3" s="35">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1315,40 +1318,40 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="45" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="31">
+      <c r="B5" s="39">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="39" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1357,81 +1360,81 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="44" t="s">
-        <v>73</v>
+      <c r="I5" s="39"/>
+      <c r="J5" s="47" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="45"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="45"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="46"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1440,82 +1443,82 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="33" t="s">
-        <v>74</v>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31" t="s">
-        <v>75</v>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -1523,160 +1526,160 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="33" t="s">
-        <v>82</v>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="31">
+      <c r="B25" s="39">
         <v>3</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="39" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1685,212 +1688,212 @@
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="33" t="s">
-        <v>83</v>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="33"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="33"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="31">
+      <c r="B28" s="39">
         <v>4</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="39" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="33" t="s">
-        <v>86</v>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="47"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="28">
+      <c r="B30" s="35">
         <v>5</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="33"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="33"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="33"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="G34" s="41"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="33"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="G36" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="135" x14ac:dyDescent="0.15">
@@ -1901,152 +1904,152 @@
         <v>44</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I37" s="13"/>
-      <c r="J37" s="48" t="s">
-        <v>135</v>
+      <c r="J37" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="31">
+      <c r="B38" s="39">
         <v>7</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>90</v>
+      <c r="D38" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="43" t="s">
-        <v>94</v>
+      <c r="H38" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="39"/>
+      <c r="J38" s="45" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="33"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39" t="s">
         <v>50</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40" s="31" t="s">
+      <c r="G40" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="43" t="s">
-        <v>105</v>
+      <c r="I40" s="39"/>
+      <c r="J40" s="45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="33"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="33"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" spans="2:10" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="28">
+      <c r="B43" s="35">
         <v>8</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I43" s="13"/>
-      <c r="J43" s="48" t="s">
-        <v>133</v>
+      <c r="J43" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>61</v>
@@ -2055,88 +2058,88 @@
         <v>62</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>61</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="27"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="31">
+      <c r="B46" s="39">
         <v>9</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="39" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="48" t="s">
-        <v>108</v>
+      <c r="J46" s="31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>59</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="48" t="s">
-        <v>111</v>
+      <c r="J47" s="31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="31">
+      <c r="B48" s="39">
         <v>10</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="39" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>61</v>
@@ -2145,21 +2148,21 @@
         <v>62</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H48" s="21" t="s">
         <v>28</v>
       </c>
       <c r="I48" s="15"/>
-      <c r="J48" s="48" t="s">
-        <v>113</v>
+      <c r="J48" s="31" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="21" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>61</v>
@@ -2168,17 +2171,19 @@
         <v>62</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="I49" s="15"/>
       <c r="J49" s="27"/>
     </row>
     <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="15" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>61</v>
@@ -2189,15 +2194,17 @@
       <c r="G50" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="I50" s="15"/>
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>61</v>
@@ -2209,18 +2216,18 @@
         <v>63</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I51" s="15"/>
-      <c r="J51" s="48" t="s">
-        <v>115</v>
+      <c r="J51" s="31" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>61</v>
@@ -2235,201 +2242,201 @@
         <v>28</v>
       </c>
       <c r="I52" s="15"/>
-      <c r="J52" s="48" t="s">
-        <v>116</v>
+      <c r="J52" s="31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="28">
+      <c r="B53" s="35">
         <v>11</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="G53" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="33"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="40"/>
     </row>
     <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="33"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40"/>
     </row>
     <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="31"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="33"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
     </row>
     <row r="57" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="31"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="33"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40"/>
     </row>
     <row r="58" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="40"/>
     </row>
     <row r="59" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="33"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="40"/>
     </row>
     <row r="60" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="28" t="s">
-        <v>124</v>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I60" s="28"/>
-      <c r="J60" s="39" t="s">
-        <v>130</v>
+        <v>67</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" s="35"/>
+      <c r="J60" s="38" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
+        <v>68</v>
+      </c>
+      <c r="G61" s="33"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
     </row>
     <row r="62" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
       <c r="E62" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="37"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
     </row>
     <row r="63" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
       <c r="E63" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="38"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B64" s="15">
         <v>12</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -2441,49 +2448,12 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="C53:C63"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="I53:I59"/>
-    <mergeCell ref="J53:J59"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="G53:G59"/>
-    <mergeCell ref="D53:D59"/>
-    <mergeCell ref="H53:H59"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="D30:D35"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="D38:D39"/>
@@ -2500,7 +2470,28 @@
     <mergeCell ref="I25:I27"/>
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="J10:J14"/>
-    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="H53:H59"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="I40:I42"/>
     <mergeCell ref="J38:J39"/>
     <mergeCell ref="J40:J42"/>
@@ -2510,12 +2501,28 @@
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="H38:H39"/>
     <mergeCell ref="H40:H42"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="I53:I59"/>
+    <mergeCell ref="J53:J59"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="G53:G59"/>
+    <mergeCell ref="D53:D59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="138">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +602,14 @@
 Size://容量
 Used://已用
 Avail://可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text：1-30字节,更新文件文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,6 +833,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -834,50 +869,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1254,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1265,7 +1276,7 @@
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
@@ -1318,14 +1329,14 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="35"/>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1339,19 +1350,19 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="40"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <v>2</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1360,81 +1371,81 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="41" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="48"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="48"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="48"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="49"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1443,81 +1454,81 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="41" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1526,160 +1537,160 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="41" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40" t="s">
+      <c r="I15" s="34"/>
+      <c r="J15" s="38" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="36"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="34"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="39">
+      <c r="B25" s="34">
         <v>3</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="34" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1688,55 +1699,55 @@
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="39">
+      <c r="B28" s="34">
         <v>4</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="34" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -1745,14 +1756,14 @@
       <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="38" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1766,10 +1777,10 @@
       <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="43"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="35">
@@ -1778,7 +1789,7 @@
       <c r="C30" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="34" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -1787,91 +1798,91 @@
       <c r="F30" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40" t="s">
+      <c r="I30" s="34"/>
+      <c r="J30" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="39"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="38"/>
     </row>
     <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="39"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="38"/>
     </row>
     <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
-      <c r="D34" s="39"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="37"/>
@@ -1924,13 +1935,13 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="39">
+      <c r="B38" s="34">
         <v>7</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="34" t="s">
         <v>88</v>
       </c>
       <c r="E38" s="13" t="s">
@@ -1939,36 +1950,36 @@
       <c r="F38" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="45" t="s">
+      <c r="I38" s="34"/>
+      <c r="J38" s="39" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E40" s="13" t="s">
@@ -1977,46 +1988,46 @@
       <c r="F40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="45" t="s">
+      <c r="I40" s="34"/>
+      <c r="J40" s="39" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="38"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="38"/>
     </row>
     <row r="43" spans="2:10" ht="256.5" x14ac:dyDescent="0.15">
       <c r="B43" s="35">
@@ -2084,10 +2095,10 @@
       <c r="J45" s="27"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="39">
+      <c r="B46" s="34">
         <v>9</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="34" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="21" t="s">
@@ -2109,8 +2120,8 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="13" t="s">
         <v>104</v>
       </c>
@@ -2132,10 +2143,10 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="39">
+      <c r="B48" s="34">
         <v>10</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2159,16 +2170,16 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="21" t="s">
         <v>133</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>117</v>
@@ -2180,16 +2191,16 @@
       <c r="J49" s="27"/>
     </row>
     <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="15" t="s">
         <v>134</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>62</v>
+        <v>136</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>63</v>
@@ -2201,8 +2212,8 @@
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="21" t="s">
         <v>112</v>
       </c>
@@ -2224,8 +2235,8 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="15" t="s">
         <v>64</v>
       </c>
@@ -2253,7 +2264,7 @@
       <c r="C53" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="34" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="21" t="s">
@@ -2262,106 +2273,106 @@
       <c r="F53" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="H53" s="39" t="s">
+      <c r="H53" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40" t="s">
+      <c r="I53" s="34"/>
+      <c r="J53" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="21" t="s">
         <v>115</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="38"/>
     </row>
     <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="39"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="21" t="s">
         <v>79</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="38"/>
     </row>
     <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
-      <c r="D56" s="39"/>
+      <c r="D56" s="34"/>
       <c r="E56" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="40"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
-      <c r="D58" s="39"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="21" t="s">
         <v>102</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="40"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="39"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="40"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="38"/>
     </row>
     <row r="60" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="36"/>
@@ -2375,14 +2386,14 @@
       <c r="F60" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G60" s="32" t="s">
+      <c r="G60" s="41" t="s">
         <v>125</v>
       </c>
       <c r="H60" s="35" t="s">
         <v>131</v>
       </c>
       <c r="I60" s="35"/>
-      <c r="J60" s="38" t="s">
+      <c r="J60" s="50" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2396,7 +2407,7 @@
       <c r="F61" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G61" s="33"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
@@ -2411,7 +2422,7 @@
       <c r="F62" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="33"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
@@ -2426,7 +2437,7 @@
       <c r="F63" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="34"/>
+      <c r="G63" s="43"/>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
@@ -2448,12 +2459,59 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="I53:I59"/>
+    <mergeCell ref="J53:J59"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="G53:G59"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="H53:H59"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="D38:D39"/>
@@ -2470,59 +2528,12 @@
     <mergeCell ref="I25:I27"/>
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="J10:J14"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="H53:H59"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="C53:C63"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="I53:I59"/>
-    <mergeCell ref="J53:J59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="G53:G59"/>
-    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="D30:D35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="139">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,10 +479,6 @@
   </si>
   <si>
     <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_FactoryReset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Reboot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -584,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_UpdateLogicFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Function_UpdateCfgMgrFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,6 +602,18 @@
   </si>
   <si>
     <t>text：1-30字节,更新文件文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Reboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_UpdateLogicFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateFileName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,11 +840,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,8 +861,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -860,18 +888,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -880,15 +896,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1266,7 +1273,7 @@
   <dimension ref="B1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:I50"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1314,13 +1321,13 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="35">
+      <c r="B3" s="37">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1329,40 +1336,40 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="47" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="34">
+      <c r="B5" s="41">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1371,81 +1378,81 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="49" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="46"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="46"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="46"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="47"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1454,81 +1461,81 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="42" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="38"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="38"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="38"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1537,160 +1544,160 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="38" t="s">
+      <c r="I15" s="41"/>
+      <c r="J15" s="42" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="38"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="38"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="38"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="38"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="38"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="38"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="34">
+      <c r="B25" s="41">
         <v>3</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="41" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1699,21 +1706,21 @@
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38" t="s">
+      <c r="I25" s="41"/>
+      <c r="J25" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
@@ -1721,14 +1728,14 @@
         <v>35</v>
       </c>
       <c r="G26" s="44"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="38"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
@@ -1736,18 +1743,18 @@
         <v>36</v>
       </c>
       <c r="G27" s="44"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="38"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="34">
+      <c r="B28" s="41">
         <v>4</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="41" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -1756,40 +1763,40 @@
       <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="38" t="s">
+      <c r="I28" s="41"/>
+      <c r="J28" s="42" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="48"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="35">
+      <c r="B30" s="37">
         <v>5</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -1798,95 +1805,95 @@
       <c r="F30" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="38" t="s">
+      <c r="I30" s="41"/>
+      <c r="J30" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="38"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="38"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="38"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42"/>
     </row>
     <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="38"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="38"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="18" t="s">
         <v>89</v>
       </c>
@@ -1915,33 +1922,33 @@
         <v>44</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="34">
+      <c r="B38" s="41">
         <v>7</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="41" t="s">
         <v>88</v>
       </c>
       <c r="E38" s="13" t="s">
@@ -1950,36 +1957,36 @@
       <c r="F38" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="39" t="s">
+      <c r="H38" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="47" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="38"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E40" s="13" t="s">
@@ -1988,79 +1995,79 @@
       <c r="F40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="34" t="s">
+      <c r="G40" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="39" t="s">
+      <c r="I40" s="41"/>
+      <c r="J40" s="47" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="38"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="42"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="38"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
     </row>
     <row r="43" spans="2:10" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="35">
+      <c r="B43" s="37">
         <v>8</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="37" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>61</v>
@@ -2069,36 +2076,36 @@
         <v>62</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>61</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="27"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="34">
+      <c r="B46" s="41">
         <v>9</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="41" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="21" t="s">
@@ -2120,8 +2127,8 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="13" t="s">
         <v>104</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>59</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>99</v>
@@ -2143,10 +2150,10 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="34">
+      <c r="B48" s="41">
         <v>10</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2170,19 +2177,19 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>28</v>
@@ -2191,16 +2198,16 @@
       <c r="J49" s="27"/>
     </row>
     <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="F50" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>63</v>
@@ -2212,8 +2219,8 @@
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="21" t="s">
         <v>112</v>
       </c>
@@ -2235,8 +2242,8 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="15" t="s">
         <v>64</v>
       </c>
@@ -2253,18 +2260,18 @@
         <v>28</v>
       </c>
       <c r="I52" s="15"/>
-      <c r="J52" s="31" t="s">
-        <v>114</v>
+      <c r="J52" s="33" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="35">
+      <c r="B53" s="37">
         <v>11</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="21" t="s">
@@ -2273,36 +2280,36 @@
       <c r="F53" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H53" s="34" t="s">
+      <c r="G53" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="34"/>
-      <c r="J53" s="38" t="s">
-        <v>126</v>
+      <c r="I53" s="41"/>
+      <c r="J53" s="42" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="34"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="44"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="38"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="42"/>
     </row>
     <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="34"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="21" t="s">
         <v>79</v>
       </c>
@@ -2310,14 +2317,14 @@
         <v>40</v>
       </c>
       <c r="G55" s="44"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="38"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
     </row>
     <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="34"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="21" t="s">
         <v>39</v>
       </c>
@@ -2325,14 +2332,14 @@
         <v>40</v>
       </c>
       <c r="G56" s="44"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="38"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="42"/>
     </row>
     <row r="57" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="34"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="41"/>
       <c r="E57" s="21" t="s">
         <v>45</v>
       </c>
@@ -2340,14 +2347,14 @@
         <v>47</v>
       </c>
       <c r="G57" s="44"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="38"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="42"/>
     </row>
     <row r="58" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="34"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="41"/>
       <c r="E58" s="21" t="s">
         <v>102</v>
       </c>
@@ -2355,14 +2362,14 @@
         <v>76</v>
       </c>
       <c r="G58" s="44"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="38"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="42"/>
     </row>
     <row r="59" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="34"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="21" t="s">
         <v>46</v>
       </c>
@@ -2370,15 +2377,15 @@
         <v>48</v>
       </c>
       <c r="G59" s="44"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="38"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="35" t="s">
-        <v>122</v>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>100</v>
@@ -2386,61 +2393,61 @@
       <c r="F60" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G60" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="I60" s="35"/>
-      <c r="J60" s="50" t="s">
-        <v>127</v>
+      <c r="G60" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" s="37"/>
+      <c r="J60" s="40" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
     </row>
     <row r="62" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="24" t="s">
         <v>79</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
     </row>
     <row r="63" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="43"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B64" s="15">
@@ -2459,6 +2466,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="H53:H59"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B30:B36"/>
     <mergeCell ref="G60:G63"/>
     <mergeCell ref="H60:H63"/>
     <mergeCell ref="I60:I63"/>
@@ -2475,65 +2541,6 @@
     <mergeCell ref="C48:C52"/>
     <mergeCell ref="G53:G59"/>
     <mergeCell ref="D53:D59"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="H53:H59"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="D30:D35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="162">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +60,6 @@
   </si>
   <si>
     <t>CGI状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,10 +495,6 @@
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_Lan1StatisticsClear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -617,23 +612,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备时间按秒跳变未取设备时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般用户不可进入此页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二次查找时下发的筛选条件未按用户指定下发</t>
+    <t>web测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status
+message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整改后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_AdminPasswdConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminPasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_UpdateWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需使用管理员密码确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_Lan1StatisticsClear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE10浏览器：设备时间未实时获取设备时间进行按秒跳变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE10浏览器：用查询条件更改后，页面未按用户修改提交查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE10浏览器：导出卡在下载中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">status
+message
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text：1-30字节,更新文件文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此操作将清除系统所有日志，需用户二次确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_LogClearAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需密码确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE10：页面根据后台返回的url下载时，卡在下载中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +718,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,13 +756,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -777,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,6 +984,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -890,17 +1080,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -911,6 +1107,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -932,34 +1134,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1046,6 +1224,135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="8961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>579581</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>84493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11552381" cy="9857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>363186</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10650186" cy="5219700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1335,10 +1642,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L64"/>
+  <dimension ref="B1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1350,1364 +1659,1607 @@
     <col min="5" max="5" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9" style="52"/>
-    <col min="11" max="11" width="21.625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="38" customWidth="1"/>
+    <col min="11" max="11" width="9" style="38"/>
+    <col min="12" max="12" width="255.625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+      <c r="B2" s="65">
+        <v>1</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="59"/>
+      <c r="I2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
-        <v>139</v>
+      <c r="J2" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="79" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="37">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="58">
+        <v>2</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
+      <c r="D4" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="42"/>
+      <c r="G4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="81" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="41">
-        <v>2</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="49" t="s">
-        <v>71</v>
-      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="50"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="50"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="82"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="50"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="51"/>
+      <c r="G9" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="59"/>
+      <c r="I9" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="57"/>
+      <c r="L9" s="72" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41" t="s">
-        <v>21</v>
-      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="42" t="s">
-        <v>72</v>
-      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="42"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="42"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="72"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="42"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="42"/>
+      <c r="G14" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="57"/>
+      <c r="L14" s="72" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
-        <v>73</v>
-      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="42" t="s">
-        <v>80</v>
-      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="42"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="72"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="42"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="72"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="42"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="72"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="42"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="42"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="72"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="42"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="72"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="42"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="72"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="42"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="72"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="58">
+        <v>3</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="42"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="41">
-        <v>3</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="G25" s="74"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="72"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="42"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="72"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="58">
+        <v>4</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>36</v>
+      </c>
       <c r="E27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="42"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="41">
-        <v>4</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="G27" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="57"/>
+      <c r="L27" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="45"/>
-    </row>
-    <row r="30" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="37">
+      <c r="F28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="77"/>
+    </row>
+    <row r="29" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="65">
         <v>5</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="41" t="s">
+      <c r="C29" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="57"/>
+      <c r="L29" s="72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="73"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="72"/>
+    </row>
+    <row r="31" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="73"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="72"/>
+    </row>
+    <row r="32" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="73"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="72"/>
+    </row>
+    <row r="33" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="42" t="s">
+      <c r="G33" s="73"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="72"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="73"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="72"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="45"/>
+      <c r="I35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="41"/>
+      <c r="L35" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="135" x14ac:dyDescent="0.15">
+      <c r="B36" s="15">
+        <v>6</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" s="41"/>
+      <c r="L36" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B37" s="58">
+        <v>7</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="57"/>
+      <c r="I37" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="K37" s="57"/>
+      <c r="L37" s="79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="72"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="72"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="57"/>
+      <c r="I39" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="K39" s="57"/>
+      <c r="L39" s="79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="72"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="72"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="72"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="72"/>
+    </row>
+    <row r="42" spans="2:12" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="65">
+        <v>8</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="45"/>
+      <c r="I42" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K42" s="41"/>
+      <c r="L42" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="45"/>
+      <c r="I43" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" s="41"/>
+      <c r="L43" s="27"/>
+    </row>
+    <row r="44" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="45"/>
+      <c r="I44" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" s="41"/>
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="58">
+        <v>9</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="45"/>
+      <c r="I45" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J45" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" s="42"/>
+      <c r="L45" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="45"/>
+      <c r="I46" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46" s="42"/>
+      <c r="L46" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="42"/>
-    </row>
-    <row r="32" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="9" t="s">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B47" s="65">
+        <v>10</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="51"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="43"/>
+      <c r="L47" s="37"/>
+    </row>
+    <row r="48" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="45"/>
+      <c r="I48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" s="41"/>
+      <c r="L48" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="K49" s="41"/>
+      <c r="L49" s="27"/>
+    </row>
+    <row r="50" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="K50" s="41"/>
+      <c r="L50" s="27"/>
+    </row>
+    <row r="51" spans="2:12" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51" s="41"/>
+      <c r="L51" s="36"/>
+    </row>
+    <row r="52" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="45"/>
+      <c r="I52" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J52" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="41"/>
+      <c r="L52" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="45"/>
+      <c r="I53" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K53" s="41"/>
+      <c r="L53" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="65">
+        <v>11</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="57"/>
+      <c r="I54" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="K54" s="70"/>
+      <c r="L54" s="72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="74"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="72"/>
+    </row>
+    <row r="56" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="42"/>
-    </row>
-    <row r="33" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="9" t="s">
+      <c r="G56" s="74"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="72"/>
+    </row>
+    <row r="57" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="74"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="72"/>
+    </row>
+    <row r="58" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="74"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="72"/>
+    </row>
+    <row r="59" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="74"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="72"/>
+    </row>
+    <row r="60" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F60" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="42"/>
-    </row>
-    <row r="34" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="42"/>
-    </row>
-    <row r="35" spans="2:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="42"/>
-    </row>
-    <row r="36" spans="2:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="135" x14ac:dyDescent="0.15">
-      <c r="B37" s="15">
-        <v>6</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="G60" s="74"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="72"/>
+    </row>
+    <row r="61" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B38" s="41">
-        <v>7</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="42"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="42"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="42"/>
-    </row>
-    <row r="43" spans="2:11" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="37">
-        <v>8</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="26" t="s">
+      <c r="H61" s="59"/>
+      <c r="I61" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="24" t="s">
+      <c r="J61" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="K61" s="59"/>
+      <c r="L61" s="69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="63"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="60"/>
+    </row>
+    <row r="63" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="63"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="60"/>
+    </row>
+    <row r="64" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="64"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="61"/>
+    </row>
+    <row r="65" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="27"/>
-    </row>
-    <row r="45" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="27"/>
-    </row>
-    <row r="46" spans="2:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="B46" s="41">
-        <v>9</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="K46" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="41">
-        <v>10</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="15"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="37">
-        <v>11</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="41"/>
-      <c r="J53" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="K53" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" s="17" t="s">
+      <c r="G65" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="J65" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="K65" s="40"/>
+      <c r="L65" s="34"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B66" s="15">
+        <v>12</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="42"/>
-    </row>
-    <row r="55" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="42"/>
-    </row>
-    <row r="56" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="44"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="42"/>
-    </row>
-    <row r="57" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" s="44"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="42"/>
-    </row>
-    <row r="58" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="42"/>
-    </row>
-    <row r="59" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" s="44"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="42"/>
-    </row>
-    <row r="60" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I60" s="37"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="38"/>
-    </row>
-    <row r="62" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="38"/>
-    </row>
-    <row r="63" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="39"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B64" s="15">
-        <v>12</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="27"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="J53:J59"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="K30:K35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="K10:K14"/>
-    <mergeCell ref="K15:K24"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="H53:H59"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="K60:K63"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="C53:C63"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="I53:I59"/>
-    <mergeCell ref="K53:K59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="G53:G59"/>
-    <mergeCell ref="D53:D59"/>
+  <mergeCells count="97">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K14:K23"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="J29:J34"/>
+    <mergeCell ref="L29:L34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="G14:G23"/>
+    <mergeCell ref="I14:I23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J23"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D23"/>
+    <mergeCell ref="C4:C23"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="J54:J60"/>
+    <mergeCell ref="L54:L60"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="G54:G60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="I54:I60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="K54:K60"/>
+    <mergeCell ref="C54:C65"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H54:H60"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin"/>
-    <hyperlink ref="K38" r:id="rId2"/>
-    <hyperlink ref="K40" r:id="rId3"/>
-    <hyperlink ref="K46" r:id="rId4"/>
-    <hyperlink ref="K47" r:id="rId5"/>
-    <hyperlink ref="K48" r:id="rId6"/>
-    <hyperlink ref="K51" r:id="rId7"/>
-    <hyperlink ref="K52" r:id="rId8"/>
-    <hyperlink ref="K60" r:id="rId9"/>
-    <hyperlink ref="K43" r:id="rId10"/>
-    <hyperlink ref="K37" r:id="rId11"/>
+    <hyperlink ref="L2" r:id="rId1" display="http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin"/>
+    <hyperlink ref="L37" r:id="rId2"/>
+    <hyperlink ref="L39" r:id="rId3"/>
+    <hyperlink ref="L45" r:id="rId4"/>
+    <hyperlink ref="L46" r:id="rId5"/>
+    <hyperlink ref="L48" r:id="rId6"/>
+    <hyperlink ref="L52" r:id="rId7"/>
+    <hyperlink ref="L53" r:id="rId8"/>
+    <hyperlink ref="L61" r:id="rId9"/>
+    <hyperlink ref="L42" r:id="rId10"/>
+    <hyperlink ref="L36" r:id="rId11"/>
+    <hyperlink ref="J29:J34" location="Sheet2!A1" display="IE10：页面根据后台返回的url下载时，卡在下载中"/>
+    <hyperlink ref="J45" location="Sheet3!A1" display="IE10浏览器：设备时间未实时获取设备时间进行按秒跳变"/>
+    <hyperlink ref="J61:J64" location="Sheet4!A1" display="IE10浏览器：导出卡在下载中"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,10 +466,6 @@
   </si>
   <si>
     <t>Function_GetVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_GetVersion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -625,14 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_AdminPasswdConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdminPasswd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Function_UpdateWeb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,7 +698,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IE10：页面根据后台返回的url下载时，卡在下载中</t>
+    <t>自动上传功能低优先级实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待添加进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_GetVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_AdminPasswdConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminPasswd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,6 +782,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -883,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,14 +1069,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,6 +1096,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1077,8 +1114,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1098,46 +1150,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1644,10 +1669,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1662,7 +1687,7 @@
     <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="38" customWidth="1"/>
-    <col min="11" max="11" width="9" style="38"/>
+    <col min="11" max="11" width="9" style="38" customWidth="1"/>
     <col min="12" max="12" width="255.625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1686,29 +1711,29 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="65">
+      <c r="B2" s="63">
         <v>1</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1717,46 +1742,46 @@
       <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="58" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="79" t="s">
+      <c r="J2" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="58"/>
+      <c r="L2" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="72"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="66"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="58">
+      <c r="B4" s="62">
         <v>2</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="62" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1765,93 +1790,93 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="65" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="81" t="s">
+      <c r="J4" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="73" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="82"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="74"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="82"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="74"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="82"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="83"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1860,93 +1885,93 @@
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="65" t="s">
+      <c r="H9" s="58"/>
+      <c r="I9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="72" t="s">
+      <c r="J9" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="72"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="72"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="72"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="72"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1955,182 +1980,182 @@
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="65" t="s">
+      <c r="H14" s="58"/>
+      <c r="I14" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="72" t="s">
+      <c r="J14" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="60"/>
+      <c r="L14" s="66" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="72"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="72"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="66"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="72"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="72"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="72"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="72"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="66"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="72"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="72"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="72"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="58">
+      <c r="B24" s="62">
         <v>3</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="62" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -2139,63 +2164,63 @@
       <c r="F24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58" t="s">
+      <c r="H24" s="60"/>
+      <c r="I24" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="72" t="s">
+      <c r="J24" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="60"/>
+      <c r="L24" s="66" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="74"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="58">
+      <c r="B27" s="62">
         <v>4</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="62" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2204,46 +2229,46 @@
       <c r="F27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58" t="s">
+      <c r="H27" s="60"/>
+      <c r="I27" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="72" t="s">
+      <c r="J27" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="60"/>
+      <c r="L27" s="66" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="76"/>
     </row>
     <row r="29" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="65">
+      <c r="B29" s="63">
         <v>5</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -2252,109 +2277,109 @@
       <c r="F29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58" t="s">
+      <c r="H29" s="60"/>
+      <c r="I29" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="K29" s="57"/>
-      <c r="L29" s="72" t="s">
+      <c r="J29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="K29" s="60"/>
+      <c r="L29" s="66" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="58"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="72"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="31" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="58"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="72"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="66"/>
     </row>
     <row r="32" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="58"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="72"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="66"/>
     </row>
     <row r="33" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="58"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="21" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="73"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="72"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="66"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="58"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="73"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="72"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="66"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="18" t="s">
         <v>88</v>
       </c>
@@ -2387,37 +2412,37 @@
         <v>43</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>61</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B37" s="58">
+      <c r="B37" s="62">
         <v>7</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="62" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -2426,42 +2451,42 @@
       <c r="F37" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="80" t="s">
+      <c r="G37" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="57"/>
-      <c r="I37" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J37" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="79" t="s">
+      <c r="H37" s="60"/>
+      <c r="I37" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" s="60"/>
+      <c r="L37" s="67" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="72"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="72"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="66"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58" t="s">
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="13" t="s">
@@ -2470,91 +2495,91 @@
       <c r="F39" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="57"/>
-      <c r="I39" s="58" t="s">
+      <c r="G39" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="60"/>
+      <c r="I39" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="79" t="s">
+      <c r="J39" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" s="60"/>
+      <c r="L39" s="67" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="72"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="72"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="66"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="72"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="72"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="66"/>
     </row>
     <row r="42" spans="2:12" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="65">
+      <c r="B42" s="63">
         <v>8</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="63" t="s">
         <v>55</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>60</v>
@@ -2563,48 +2588,48 @@
         <v>61</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="45"/>
       <c r="I43" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="J43" s="43" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="J43" s="87" t="s">
+        <v>160</v>
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="27"/>
     </row>
     <row r="44" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>60</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H44" s="45"/>
       <c r="I44" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="J44" s="88" t="s">
+        <v>160</v>
       </c>
       <c r="K44" s="41"/>
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="58">
+      <c r="B45" s="62">
         <v>9</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="21" t="s">
@@ -2622,7 +2647,7 @@
         <v>96</v>
       </c>
       <c r="J45" s="56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K45" s="42"/>
       <c r="L45" s="31" t="s">
@@ -2630,8 +2655,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="13" t="s">
         <v>103</v>
       </c>
@@ -2642,14 +2667,14 @@
         <v>58</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H46" s="45"/>
       <c r="I46" s="21" t="s">
         <v>98</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K46" s="42"/>
       <c r="L46" s="31" t="s">
@@ -2657,17 +2682,17 @@
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B47" s="65">
+      <c r="B47" s="63">
         <v>10</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F47" s="49" t="s">
         <v>52</v>
@@ -2678,14 +2703,14 @@
         <v>93</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K47" s="43"/>
       <c r="L47" s="37"/>
     </row>
     <row r="48" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="15" t="s">
         <v>109</v>
       </c>
@@ -2703,99 +2728,99 @@
         <v>27</v>
       </c>
       <c r="J48" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K48" s="41"/>
-      <c r="L48" s="31" t="s">
-        <v>110</v>
+      <c r="L48" s="57" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="F49" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>27</v>
       </c>
       <c r="J49" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K49" s="41"/>
       <c r="L49" s="27"/>
     </row>
     <row r="50" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>132</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>133</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>62</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>27</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K50" s="41"/>
       <c r="L50" s="27"/>
     </row>
     <row r="51" spans="2:12" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F51" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G51" s="51" t="s">
         <v>53</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>27</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K51" s="41"/>
       <c r="L51" s="36"/>
     </row>
     <row r="52" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>60</v>
@@ -2811,16 +2836,16 @@
         <v>96</v>
       </c>
       <c r="J52" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="15" t="s">
         <v>63</v>
       </c>
@@ -2831,28 +2856,28 @@
         <v>61</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H53" s="45"/>
       <c r="I53" s="21" t="s">
         <v>27</v>
       </c>
       <c r="J53" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K53" s="41"/>
       <c r="L53" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="65">
+      <c r="B54" s="63">
         <v>11</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="21" t="s">
@@ -2861,128 +2886,128 @@
       <c r="F54" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="57"/>
-      <c r="I54" s="58" t="s">
+      <c r="G54" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" s="60"/>
+      <c r="I54" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J54" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="K54" s="70"/>
-      <c r="L54" s="72" t="s">
-        <v>123</v>
+      <c r="J54" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="K54" s="82"/>
+      <c r="L54" s="66" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="58"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="62"/>
       <c r="E55" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="74"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="66"/>
     </row>
     <row r="56" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="58"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="62"/>
       <c r="E56" s="21" t="s">
         <v>78</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="74"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="66"/>
     </row>
     <row r="57" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="58"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="62"/>
       <c r="E57" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="74"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="66"/>
     </row>
     <row r="58" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="58"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="62"/>
       <c r="E58" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="66"/>
     </row>
     <row r="59" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="58"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="62"/>
       <c r="E59" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="74"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="66"/>
     </row>
     <row r="60" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="58"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="62"/>
       <c r="E60" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G60" s="74"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="66"/>
     </row>
     <row r="61" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="65" t="s">
-        <v>119</v>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="63" t="s">
+        <v>118</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>99</v>
@@ -2990,77 +3015,77 @@
       <c r="F61" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="H61" s="59"/>
-      <c r="I61" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="J61" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="K61" s="59"/>
-      <c r="L61" s="69" t="s">
-        <v>124</v>
+      <c r="G61" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="58"/>
+      <c r="I61" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="J61" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="K61" s="58"/>
+      <c r="L61" s="81" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="60"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="64"/>
     </row>
     <row r="63" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="24" t="s">
         <v>78</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="63"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="60"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="64"/>
     </row>
     <row r="64" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="61"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="65"/>
     </row>
     <row r="65" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E65" s="48" t="s">
         <v>57</v>
@@ -3069,16 +3094,16 @@
         <v>61</v>
       </c>
       <c r="G65" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="H65" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="H65" s="55" t="s">
+      <c r="I65" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="J65" s="40" t="s">
         <v>157</v>
-      </c>
-      <c r="I65" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="J65" s="40" t="s">
-        <v>160</v>
       </c>
       <c r="K65" s="40"/>
       <c r="L65" s="34"/>
@@ -3102,18 +3127,74 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K14:K23"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="I29:I34"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="J29:J34"/>
-    <mergeCell ref="L29:L34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="H54:H60"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="J54:J60"/>
+    <mergeCell ref="L54:L60"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="G54:G60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="I54:I60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="K54:K60"/>
+    <mergeCell ref="C54:C65"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D23"/>
+    <mergeCell ref="C4:C23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J23"/>
+    <mergeCell ref="I4:I8"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="D37:D38"/>
@@ -3130,75 +3211,19 @@
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L9:L13"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J14:J23"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D23"/>
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="J54:J60"/>
-    <mergeCell ref="L54:L60"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="G54:G60"/>
-    <mergeCell ref="D54:D60"/>
-    <mergeCell ref="I54:I60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="K54:K60"/>
-    <mergeCell ref="C54:C65"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="J29:J34"/>
+    <mergeCell ref="L29:L34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="K29:K34"/>
     <mergeCell ref="H29:H34"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H14:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H54:H60"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K14:K23"/>
+    <mergeCell ref="K24:K26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3213,7 +3238,6 @@
     <hyperlink ref="L61" r:id="rId9"/>
     <hyperlink ref="L42" r:id="rId10"/>
     <hyperlink ref="L36" r:id="rId11"/>
-    <hyperlink ref="J29:J34" location="Sheet2!A1" display="IE10：页面根据后台返回的url下载时，卡在下载中"/>
     <hyperlink ref="J45" location="Sheet3!A1" display="IE10浏览器：设备时间未实时获取设备时间进行按秒跳变"/>
     <hyperlink ref="J61:J64" location="Sheet4!A1" display="IE10浏览器：导出卡在下载中"/>
   </hyperlinks>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="165">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,10 +629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升级需使用管理员密码确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,22 +645,6 @@
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IE10浏览器：设备时间未实时获取设备时间进行按秒跳变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IE10浏览器：用查询条件更改后，页面未按用户修改提交查询条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IE10浏览器：导出卡在下载中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -682,43 +662,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Function_LogClearAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需密码确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动上传功能低优先级实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待添加进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_GetVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function_AdminPasswdConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminPasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志导出应让用户选择存放路径，如果不支持选择路径应在下载完毕时提示用户文件存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>此操作将清除系统所有日志，需用户二次确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function_LogClearAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需密码确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动上传功能低优先级实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待添加进度条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_GetVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function_AdminPasswdConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdminPasswd</t>
+    <t>1、未进行弹出警告信息“此操作将清除系统所有日志，不可恢复”让用户进行二次确认；
+2、IE 10下多次点击清除日志按钮后失效；
+3、将“清空日志”改为“清除所有日志”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码需支持隐式输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入密码需支持隐式输入；
+2、校验规则：当前版本号与升级版本号不同时方可进行升级，无需校验文件名；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,17 +778,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -789,7 +787,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -899,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,140 +1027,158 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1670,9 +1685,9 @@
   <dimension ref="B1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1686,7 +1701,7 @@
     <col min="7" max="7" width="35.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="31.125" style="94" customWidth="1"/>
     <col min="11" max="11" width="9" style="38" customWidth="1"/>
     <col min="12" max="12" width="255.625" style="29" bestFit="1" customWidth="1"/>
   </cols>
@@ -1711,12 +1726,12 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="78" t="s">
         <v>136</v>
       </c>
       <c r="K1" s="39" t="s">
@@ -1727,13 +1742,13 @@
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="63">
+      <c r="B2" s="61">
         <v>1</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="61" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1742,46 +1757,46 @@
       <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="54" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="66"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="62">
+      <c r="B4" s="54">
         <v>2</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="54" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1790,93 +1805,93 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="63" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="73" t="s">
+      <c r="J4" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="74" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="74"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="75"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="74"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="74"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="75"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="76"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1885,93 +1900,93 @@
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="63" t="s">
+      <c r="H9" s="55"/>
+      <c r="I9" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="66" t="s">
+      <c r="J9" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="65" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="66"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="66"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="66"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="66"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1980,182 +1995,182 @@
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="63" t="s">
+      <c r="H14" s="55"/>
+      <c r="I14" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="66" t="s">
+      <c r="J14" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="53"/>
+      <c r="L14" s="65" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="66"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="66"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="66"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="66"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="66"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="66"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="65"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="66"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="66"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="65"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="71"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="66"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="62">
+      <c r="B24" s="54">
         <v>3</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="54" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -2164,63 +2179,63 @@
       <c r="F24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="62" t="s">
+      <c r="H24" s="53"/>
+      <c r="I24" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="66" t="s">
+      <c r="J24" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="53"/>
+      <c r="L24" s="65" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="65"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="66"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="62">
+      <c r="B27" s="54">
         <v>4</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="54" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2229,46 +2244,46 @@
       <c r="F27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="62" t="s">
+      <c r="H27" s="53"/>
+      <c r="I27" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="66" t="s">
+      <c r="J27" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="53"/>
+      <c r="L27" s="65" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="77"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="76"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="63">
+      <c r="B29" s="61">
         <v>5</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="54" t="s">
         <v>76</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -2277,109 +2292,109 @@
       <c r="F29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="60"/>
-      <c r="I29" s="62" t="s">
+      <c r="H29" s="53"/>
+      <c r="I29" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="66" t="s">
+      <c r="J29" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="53"/>
+      <c r="L29" s="65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="62"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="65"/>
     </row>
     <row r="31" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="62"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="62"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="65"/>
     </row>
     <row r="33" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="62"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="21" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="65"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="65"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="18" t="s">
         <v>88</v>
       </c>
@@ -2392,11 +2407,11 @@
       <c r="G35" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="45"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="52" t="s">
         <v>61</v>
       </c>
       <c r="K35" s="41"/>
@@ -2423,12 +2438,12 @@
       <c r="G36" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J36" s="41" t="s">
-        <v>146</v>
+      <c r="J36" s="52" t="s">
+        <v>145</v>
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="31" t="s">
@@ -2436,13 +2451,13 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B37" s="62">
+      <c r="B37" s="54">
         <v>7</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="54" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -2451,42 +2466,42 @@
       <c r="F37" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="60"/>
-      <c r="I37" s="62" t="s">
+      <c r="H37" s="53"/>
+      <c r="I37" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="K37" s="60"/>
-      <c r="L37" s="67" t="s">
+      <c r="J37" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="53"/>
+      <c r="L37" s="72" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="66"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="65"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="13" t="s">
@@ -2495,60 +2510,60 @@
       <c r="F39" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="60"/>
-      <c r="I39" s="62" t="s">
+      <c r="H39" s="53"/>
+      <c r="I39" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="K39" s="60"/>
-      <c r="L39" s="67" t="s">
+      <c r="J39" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K39" s="53"/>
+      <c r="L39" s="72" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="66"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="66"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="65"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="66"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="65"/>
     </row>
     <row r="42" spans="2:12" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="63">
+      <c r="B42" s="61">
         <v>8</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="61" t="s">
         <v>55</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -2563,12 +2578,12 @@
       <c r="G42" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="H42" s="45"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="41" t="s">
-        <v>146</v>
+      <c r="J42" s="52" t="s">
+        <v>145</v>
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="31" t="s">
@@ -2576,10 +2591,10 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>60</v>
@@ -2590,19 +2605,19 @@
       <c r="G43" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H43" s="45"/>
+      <c r="H43" s="44"/>
       <c r="I43" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="J43" s="87" t="s">
-        <v>160</v>
+        <v>143</v>
+      </c>
+      <c r="J43" s="84" t="s">
+        <v>153</v>
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="27"/>
     </row>
     <row r="44" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="24" t="s">
         <v>116</v>
       </c>
@@ -2615,21 +2630,21 @@
       <c r="G44" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H44" s="45"/>
+      <c r="H44" s="44"/>
       <c r="I44" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="J44" s="88" t="s">
-        <v>160</v>
+        <v>143</v>
+      </c>
+      <c r="J44" s="85" t="s">
+        <v>153</v>
       </c>
       <c r="K44" s="41"/>
       <c r="L44" s="27"/>
     </row>
-    <row r="45" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="62">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B45" s="54">
         <v>9</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="54" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="21" t="s">
@@ -2642,12 +2657,12 @@
       <c r="G45" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="45"/>
+      <c r="H45" s="44"/>
       <c r="I45" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J45" s="56" t="s">
-        <v>148</v>
+      <c r="J45" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="K45" s="42"/>
       <c r="L45" s="31" t="s">
@@ -2655,8 +2670,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="13" t="s">
         <v>103</v>
       </c>
@@ -2669,12 +2684,12 @@
       <c r="G46" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H46" s="45"/>
+      <c r="H46" s="44"/>
       <c r="I46" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="53" t="s">
-        <v>146</v>
+      <c r="J46" s="86" t="s">
+        <v>145</v>
       </c>
       <c r="K46" s="42"/>
       <c r="L46" s="31" t="s">
@@ -2682,35 +2697,35 @@
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B47" s="63">
+      <c r="B47" s="61">
         <v>10</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="49" t="s">
+      <c r="D47" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="54"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="39"/>
       <c r="I47" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J47" s="44" t="s">
-        <v>147</v>
+      <c r="J47" s="87" t="s">
+        <v>158</v>
       </c>
       <c r="K47" s="43"/>
       <c r="L47" s="37"/>
     </row>
     <row r="48" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="15" t="s">
         <v>109</v>
       </c>
@@ -2723,21 +2738,21 @@
       <c r="G48" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="45"/>
+      <c r="H48" s="44"/>
       <c r="I48" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="41" t="s">
-        <v>146</v>
+      <c r="J48" s="52" t="s">
+        <v>145</v>
       </c>
       <c r="K48" s="41"/>
-      <c r="L48" s="57" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
+      <c r="L48" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="21" t="s">
         <v>134</v>
       </c>
@@ -2745,26 +2760,26 @@
         <v>135</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="45" t="s">
-        <v>156</v>
+      <c r="H49" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="43" t="s">
-        <v>141</v>
+      <c r="J49" s="88" t="s">
+        <v>164</v>
       </c>
       <c r="K49" s="41"/>
       <c r="L49" s="27"/>
     </row>
     <row r="50" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="15" t="s">
         <v>129</v>
       </c>
@@ -2777,48 +2792,48 @@
       <c r="G50" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="45" t="s">
-        <v>156</v>
+      <c r="H50" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="44" t="s">
-        <v>142</v>
+      <c r="J50" s="89" t="s">
+        <v>141</v>
       </c>
       <c r="K50" s="41"/>
       <c r="L50" s="27"/>
     </row>
     <row r="51" spans="2:12" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="48" t="s">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="51" t="s">
+      <c r="G51" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H51" s="45" t="s">
-        <v>156</v>
+      <c r="H51" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="44" t="s">
-        <v>142</v>
+      <c r="J51" s="89" t="s">
+        <v>141</v>
       </c>
       <c r="K51" s="41"/>
       <c r="L51" s="36"/>
     </row>
     <row r="52" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="21" t="s">
         <v>110</v>
       </c>
@@ -2831,12 +2846,14 @@
       <c r="G52" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="45"/>
+      <c r="H52" s="51" t="s">
+        <v>150</v>
+      </c>
       <c r="I52" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J52" s="41" t="s">
-        <v>146</v>
+      <c r="J52" s="88" t="s">
+        <v>163</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="31" t="s">
@@ -2844,8 +2861,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="15" t="s">
         <v>63</v>
       </c>
@@ -2858,12 +2875,14 @@
       <c r="G53" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H53" s="45"/>
+      <c r="H53" s="51" t="s">
+        <v>150</v>
+      </c>
       <c r="I53" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="41" t="s">
-        <v>146</v>
+      <c r="J53" s="88" t="s">
+        <v>163</v>
       </c>
       <c r="K53" s="41"/>
       <c r="L53" s="33" t="s">
@@ -2871,13 +2890,13 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="63">
+      <c r="B54" s="61">
         <v>11</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="54" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="21" t="s">
@@ -2886,127 +2905,127 @@
       <c r="F54" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="61" t="s">
+      <c r="G54" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="H54" s="60"/>
-      <c r="I54" s="62" t="s">
+      <c r="H54" s="53"/>
+      <c r="I54" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="J54" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="K54" s="82"/>
-      <c r="L54" s="66" t="s">
+      <c r="J54" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="K54" s="63"/>
+      <c r="L54" s="65" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="62"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="54"/>
       <c r="E55" s="21" t="s">
         <v>112</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="72"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="66"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="65"/>
     </row>
     <row r="56" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="62"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="21" t="s">
         <v>78</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="72"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="66"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="65"/>
     </row>
     <row r="57" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="62"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="72"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="66"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="65"/>
     </row>
     <row r="58" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="62"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="72"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="66"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="65"/>
     </row>
     <row r="59" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="62"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="54"/>
       <c r="E59" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="72"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="66"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="65"/>
     </row>
     <row r="60" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="62"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="54"/>
       <c r="E60" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G60" s="72"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="66"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="65"/>
     </row>
     <row r="61" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="63" t="s">
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="61" t="s">
         <v>118</v>
       </c>
       <c r="E61" s="24" t="s">
@@ -3015,95 +3034,95 @@
       <c r="F61" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="69" t="s">
+      <c r="G61" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="H61" s="58"/>
-      <c r="I61" s="63" t="s">
+      <c r="H61" s="55"/>
+      <c r="I61" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="J61" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="K61" s="58"/>
-      <c r="L61" s="81" t="s">
+      <c r="J61" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="K61" s="55"/>
+      <c r="L61" s="62" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="24" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="70"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="64"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="56"/>
     </row>
     <row r="63" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="24" t="s">
         <v>78</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="70"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="64"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="56"/>
     </row>
     <row r="64" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="71"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="65"/>
-    </row>
-    <row r="65" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="E65" s="48" t="s">
+      <c r="G64" s="60"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="57"/>
+    </row>
+    <row r="65" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="51" t="s">
+      <c r="F65" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="H65" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I65" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="J65" s="40" t="s">
-        <v>157</v>
+      <c r="G65" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="88" t="s">
+        <v>162</v>
       </c>
       <c r="K65" s="40"/>
       <c r="L65" s="34"/>
@@ -3119,19 +3138,90 @@
       <c r="E66" s="15"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="46"/>
+      <c r="H66" s="45"/>
       <c r="I66" s="15"/>
-      <c r="J66" s="41"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="41"/>
       <c r="L66" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H54:H60"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K14:K23"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="J29:J34"/>
+    <mergeCell ref="L29:L34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="G14:G23"/>
+    <mergeCell ref="I14:I23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J23"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D23"/>
+    <mergeCell ref="C4:C23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B29:B35"/>
     <mergeCell ref="J61:J64"/>
     <mergeCell ref="L61:L64"/>
     <mergeCell ref="B42:B44"/>
@@ -3148,82 +3238,11 @@
     <mergeCell ref="C54:C65"/>
     <mergeCell ref="B54:B65"/>
     <mergeCell ref="I61:I64"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D23"/>
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H14:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J14:J23"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="G14:G23"/>
-    <mergeCell ref="I14:I23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="I29:I34"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="J29:J34"/>
-    <mergeCell ref="L29:L34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="K29:K34"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K14:K23"/>
-    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="H54:H60"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3238,8 +3257,6 @@
     <hyperlink ref="L61" r:id="rId9"/>
     <hyperlink ref="L42" r:id="rId10"/>
     <hyperlink ref="L36" r:id="rId11"/>
-    <hyperlink ref="J45" location="Sheet3!A1" display="IE10浏览器：设备时间未实时获取设备时间进行按秒跳变"/>
-    <hyperlink ref="J61:J64" location="Sheet4!A1" display="IE10浏览器：导出卡在下载中"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,9 +642,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -726,6 +723,11 @@
   <si>
     <t>1、输入密码需支持隐式输入；
 2、校验规则：当前版本号与升级版本号不同时方可进行升级，无需校验文件名；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改IPv4等配置点击保存成功后，进入其他分页，再返回到网络设置页时，显示的网络设置不是最后一次配置的网络参数；
+2、勾选自动获取后，MAC地址应该是可配置状态，且不能把其他IPv4参数置成0，应为从config.xml中获取到的值；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,130 +1056,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1685,9 +1693,9 @@
   <dimension ref="B1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1701,7 +1709,7 @@
     <col min="7" max="7" width="35.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.125" style="94" customWidth="1"/>
+    <col min="10" max="10" width="31.125" style="63" customWidth="1"/>
     <col min="11" max="11" width="9" style="38" customWidth="1"/>
     <col min="12" max="12" width="255.625" style="29" bestFit="1" customWidth="1"/>
   </cols>
@@ -1726,12 +1734,12 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="54" t="s">
         <v>136</v>
       </c>
       <c r="K1" s="39" t="s">
@@ -1742,13 +1750,13 @@
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="61">
+      <c r="B2" s="69">
         <v>1</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1757,46 +1765,46 @@
       <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="54" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="72" t="s">
+      <c r="J2" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="L2" s="76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="65"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="54">
+      <c r="B4" s="68">
         <v>2</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="68" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1805,93 +1813,93 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="74" t="s">
+      <c r="J4" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="L4" s="82" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="75"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="75"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="75"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="83"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="76"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="84"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1900,93 +1908,93 @@
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="61" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="65" t="s">
+      <c r="J9" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="66"/>
+      <c r="L9" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="65"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="73"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="65"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="65"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="73"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="65"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1995,182 +2003,182 @@
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="61" t="s">
+      <c r="H14" s="64"/>
+      <c r="I14" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="65" t="s">
+      <c r="J14" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="66"/>
+      <c r="L14" s="73" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="65"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="73"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="65"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="73"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="65"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="73"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="65"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="65"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="65"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="65"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="65"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="73"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="65"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="73"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="54">
+      <c r="B24" s="68">
         <v>3</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="68" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -2179,63 +2187,63 @@
       <c r="F24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54" t="s">
+      <c r="H24" s="66"/>
+      <c r="I24" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="65" t="s">
+      <c r="J24" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="66"/>
+      <c r="L24" s="73" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="65"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="65"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="54">
+      <c r="B27" s="68">
         <v>4</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="68" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2244,46 +2252,46 @@
       <c r="F27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54" t="s">
+      <c r="H27" s="66"/>
+      <c r="I27" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="65" t="s">
+      <c r="J27" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="66"/>
+      <c r="L27" s="73" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="70"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="61">
+      <c r="B29" s="69">
         <v>5</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="68" t="s">
         <v>76</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -2292,109 +2300,109 @@
       <c r="F29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54" t="s">
+      <c r="H29" s="66"/>
+      <c r="I29" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="K29" s="53"/>
-      <c r="L29" s="65" t="s">
+      <c r="J29" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="66"/>
+      <c r="L29" s="73" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="54"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="65"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="73"/>
     </row>
     <row r="31" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="54"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="65"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="73"/>
     </row>
     <row r="32" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="54"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="65"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="73"/>
     </row>
     <row r="33" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="54"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="21" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="66"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="65"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="54"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="66"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="65"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="73"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="18" t="s">
         <v>88</v>
       </c>
@@ -2443,7 +2451,7 @@
         <v>127</v>
       </c>
       <c r="J36" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="31" t="s">
@@ -2451,13 +2459,13 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B37" s="54">
+      <c r="B37" s="68">
         <v>7</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="68" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -2466,42 +2474,42 @@
       <c r="F37" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54" t="s">
+      <c r="H37" s="66"/>
+      <c r="I37" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="K37" s="53"/>
-      <c r="L37" s="72" t="s">
+      <c r="J37" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="76" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="65"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="65"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="73"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54" t="s">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="13" t="s">
@@ -2510,60 +2518,60 @@
       <c r="F39" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="73" t="s">
+      <c r="G39" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54" t="s">
+      <c r="H39" s="66"/>
+      <c r="I39" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="K39" s="53"/>
-      <c r="L39" s="72" t="s">
+      <c r="J39" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K39" s="66"/>
+      <c r="L39" s="76" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="65"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="65"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="73"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="65"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="65"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="73"/>
     </row>
     <row r="42" spans="2:12" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="61">
+      <c r="B42" s="69">
         <v>8</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="69" t="s">
         <v>55</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -2583,7 +2591,7 @@
         <v>127</v>
       </c>
       <c r="J42" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="31" t="s">
@@ -2591,8 +2599,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="24" t="s">
         <v>142</v>
       </c>
@@ -2609,15 +2617,15 @@
       <c r="I43" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="J43" s="84" t="s">
-        <v>153</v>
+      <c r="J43" s="57" t="s">
+        <v>152</v>
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="27"/>
     </row>
     <row r="44" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="24" t="s">
         <v>116</v>
       </c>
@@ -2634,17 +2642,17 @@
       <c r="I44" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="J44" s="85" t="s">
-        <v>153</v>
+      <c r="J44" s="58" t="s">
+        <v>152</v>
       </c>
       <c r="K44" s="41"/>
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="54">
+      <c r="B45" s="68">
         <v>9</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="68" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="21" t="s">
@@ -2662,7 +2670,7 @@
         <v>96</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K45" s="42"/>
       <c r="L45" s="31" t="s">
@@ -2670,8 +2678,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="13" t="s">
         <v>103</v>
       </c>
@@ -2688,8 +2696,8 @@
       <c r="I46" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="86" t="s">
-        <v>145</v>
+      <c r="J46" s="59" t="s">
+        <v>144</v>
       </c>
       <c r="K46" s="42"/>
       <c r="L46" s="31" t="s">
@@ -2697,35 +2705,35 @@
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B47" s="61">
+      <c r="B47" s="69">
         <v>10</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="69" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="78"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="39"/>
       <c r="I47" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J47" s="87" t="s">
-        <v>158</v>
+      <c r="J47" s="60" t="s">
+        <v>157</v>
       </c>
       <c r="K47" s="43"/>
       <c r="L47" s="37"/>
     </row>
     <row r="48" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
       <c r="D48" s="15" t="s">
         <v>109</v>
       </c>
@@ -2743,16 +2751,16 @@
         <v>27</v>
       </c>
       <c r="J48" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="21" t="s">
         <v>134</v>
       </c>
@@ -2760,26 +2768,26 @@
         <v>135</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>114</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="88" t="s">
-        <v>164</v>
+      <c r="J49" s="61" t="s">
+        <v>163</v>
       </c>
       <c r="K49" s="41"/>
       <c r="L49" s="27"/>
     </row>
     <row r="50" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="15" t="s">
         <v>129</v>
       </c>
@@ -2793,20 +2801,20 @@
         <v>62</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="89" t="s">
+      <c r="J50" s="62" t="s">
         <v>141</v>
       </c>
       <c r="K50" s="41"/>
       <c r="L50" s="27"/>
     </row>
     <row r="51" spans="2:12" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
       <c r="D51" s="46" t="s">
         <v>139</v>
       </c>
@@ -2820,20 +2828,20 @@
         <v>53</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="89" t="s">
+      <c r="J51" s="62" t="s">
         <v>141</v>
       </c>
       <c r="K51" s="41"/>
       <c r="L51" s="36"/>
     </row>
     <row r="52" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="21" t="s">
         <v>110</v>
       </c>
@@ -2847,13 +2855,13 @@
         <v>62</v>
       </c>
       <c r="H52" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I52" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J52" s="88" t="s">
-        <v>163</v>
+      <c r="J52" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="31" t="s">
@@ -2861,8 +2869,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="15" t="s">
         <v>63</v>
       </c>
@@ -2876,13 +2884,13 @@
         <v>137</v>
       </c>
       <c r="H53" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="88" t="s">
-        <v>163</v>
+      <c r="J53" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="K53" s="41"/>
       <c r="L53" s="33" t="s">
@@ -2890,13 +2898,13 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="61">
+      <c r="B54" s="69">
         <v>11</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="68" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="21" t="s">
@@ -2905,127 +2913,127 @@
       <c r="F54" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="66" t="s">
+      <c r="G54" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="H54" s="53"/>
-      <c r="I54" s="54" t="s">
+      <c r="H54" s="66"/>
+      <c r="I54" s="68" t="s">
         <v>96</v>
       </c>
       <c r="J54" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="K54" s="63"/>
-      <c r="L54" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="K54" s="93"/>
+      <c r="L54" s="73" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="54"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="68"/>
       <c r="E55" s="21" t="s">
         <v>112</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="67"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
       <c r="J55" s="91"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="65"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="73"/>
     </row>
     <row r="56" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="54"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="68"/>
       <c r="E56" s="21" t="s">
         <v>78</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
       <c r="J56" s="91"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="65"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="73"/>
     </row>
     <row r="57" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="54"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="68"/>
       <c r="E57" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="67"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
       <c r="J57" s="91"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="65"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="73"/>
     </row>
     <row r="58" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="54"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="67"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
       <c r="J58" s="91"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="65"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="73"/>
     </row>
     <row r="59" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="54"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="68"/>
       <c r="E59" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="67"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
       <c r="J59" s="91"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="65"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="73"/>
     </row>
     <row r="60" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="54"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G60" s="67"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
       <c r="J60" s="91"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="65"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="73"/>
     </row>
     <row r="61" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="61" t="s">
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="69" t="s">
         <v>118</v>
       </c>
       <c r="E61" s="24" t="s">
@@ -3034,95 +3042,95 @@
       <c r="F61" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="58" t="s">
+      <c r="G61" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="H61" s="55"/>
-      <c r="I61" s="61" t="s">
+      <c r="H61" s="64"/>
+      <c r="I61" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="J61" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="K61" s="55"/>
-      <c r="L61" s="62" t="s">
+      <c r="J61" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="K61" s="64"/>
+      <c r="L61" s="89" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="24" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="59"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="56"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="92"/>
+      <c r="L62" s="70"/>
     </row>
     <row r="63" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
       <c r="E63" s="24" t="s">
         <v>78</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="59"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="93"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="56"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="92"/>
+      <c r="L63" s="70"/>
     </row>
     <row r="64" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="60"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="57"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="71"/>
     </row>
     <row r="65" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="77" t="s">
-        <v>149</v>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="78" t="s">
+      <c r="F65" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="H65" s="80" t="s">
-        <v>161</v>
+      <c r="G65" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="56" t="s">
+        <v>160</v>
       </c>
       <c r="I65" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="J65" s="88" t="s">
-        <v>162</v>
+      <c r="J65" s="61" t="s">
+        <v>161</v>
       </c>
       <c r="K65" s="40"/>
       <c r="L65" s="34"/>
@@ -3146,19 +3154,74 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K14:K23"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="I29:I34"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="J29:J34"/>
-    <mergeCell ref="L29:L34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="K29:K34"/>
-    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H54:H60"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="J54:J60"/>
+    <mergeCell ref="L54:L60"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="G54:G60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="I54:I60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="K54:K60"/>
+    <mergeCell ref="C54:C65"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D23"/>
+    <mergeCell ref="C4:C23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J23"/>
+    <mergeCell ref="I4:I8"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="D37:D38"/>
@@ -3175,74 +3238,19 @@
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L9:L13"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J14:J23"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D23"/>
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H14:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="J54:J60"/>
-    <mergeCell ref="L54:L60"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="G54:G60"/>
-    <mergeCell ref="D54:D60"/>
-    <mergeCell ref="I54:I60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="K54:K60"/>
-    <mergeCell ref="C54:C65"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="H54:H60"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="J29:J34"/>
+    <mergeCell ref="L29:L34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K14:K23"/>
+    <mergeCell ref="K24:K26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="144">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,12 +616,32 @@
     <t>UpdateFileName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备时间按秒跳变未取设备时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般用户不可进入此页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次查找时下发的筛选条件未按用户指定下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +662,21 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -742,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,6 +931,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1270,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J64"/>
+  <dimension ref="B1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1287,11 +1352,12 @@
     <col min="7" max="7" width="35.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="108.375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9" style="52"/>
+    <col min="11" max="11" width="21.625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>70</v>
       </c>
@@ -1316,11 +1382,17 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="37">
         <v>1</v>
       </c>
@@ -1343,11 +1415,12 @@
         <v>13</v>
       </c>
       <c r="I3" s="37"/>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -1360,9 +1433,10 @@
       <c r="G4" s="36"/>
       <c r="H4" s="41"/>
       <c r="I4" s="39"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="55"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="41">
         <v>2</v>
       </c>
@@ -1385,11 +1459,12 @@
         <v>29</v>
       </c>
       <c r="I5" s="41"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="56"/>
+      <c r="K5" s="49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -1402,9 +1477,10 @@
       <c r="G6" s="35"/>
       <c r="H6" s="38"/>
       <c r="I6" s="41"/>
-      <c r="J6" s="50"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J6" s="56"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -1417,9 +1493,10 @@
       <c r="G7" s="35"/>
       <c r="H7" s="38"/>
       <c r="I7" s="41"/>
-      <c r="J7" s="50"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J7" s="56"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -1432,9 +1509,10 @@
       <c r="G8" s="35"/>
       <c r="H8" s="38"/>
       <c r="I8" s="41"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J8" s="56"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
@@ -1447,9 +1525,10 @@
       <c r="G9" s="36"/>
       <c r="H9" s="39"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J9" s="56"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41" t="s">
@@ -1468,11 +1547,12 @@
         <v>29</v>
       </c>
       <c r="I10" s="41"/>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="56"/>
+      <c r="K10" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -1485,9 +1565,10 @@
       <c r="G11" s="35"/>
       <c r="H11" s="38"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J11" s="56"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -1500,9 +1581,10 @@
       <c r="G12" s="35"/>
       <c r="H12" s="38"/>
       <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J12" s="56"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -1515,9 +1597,10 @@
       <c r="G13" s="35"/>
       <c r="H13" s="38"/>
       <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J13" s="56"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -1530,9 +1613,10 @@
       <c r="G14" s="36"/>
       <c r="H14" s="39"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J14" s="56"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
       <c r="D15" s="41" t="s">
@@ -1551,11 +1635,12 @@
         <v>28</v>
       </c>
       <c r="I15" s="41"/>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="56"/>
+      <c r="K15" s="42" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -1568,9 +1653,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="38"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J16" s="56"/>
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1583,9 +1669,10 @@
       <c r="G17" s="35"/>
       <c r="H17" s="38"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J17" s="56"/>
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -1598,9 +1685,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="38"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J18" s="56"/>
+      <c r="K18" s="42"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -1613,9 +1701,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="38"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="56"/>
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -1628,9 +1717,10 @@
       <c r="G20" s="35"/>
       <c r="H20" s="38"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J20" s="56"/>
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -1643,9 +1733,10 @@
       <c r="G21" s="35"/>
       <c r="H21" s="38"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J21" s="56"/>
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -1658,9 +1749,10 @@
       <c r="G22" s="35"/>
       <c r="H22" s="38"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J22" s="56"/>
+      <c r="K22" s="42"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
@@ -1673,9 +1765,10 @@
       <c r="G23" s="35"/>
       <c r="H23" s="38"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="56"/>
+      <c r="K23" s="42"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
@@ -1688,9 +1781,10 @@
       <c r="G24" s="36"/>
       <c r="H24" s="39"/>
       <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J24" s="56"/>
+      <c r="K24" s="42"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="41">
         <v>3</v>
       </c>
@@ -1713,11 +1807,12 @@
         <v>28</v>
       </c>
       <c r="I25" s="41"/>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="56"/>
+      <c r="K25" s="42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -1730,9 +1825,10 @@
       <c r="G26" s="44"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J26" s="56"/>
+      <c r="K26" s="42"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
@@ -1745,9 +1841,10 @@
       <c r="G27" s="44"/>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J27" s="56"/>
+      <c r="K27" s="42"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="41">
         <v>4</v>
       </c>
@@ -1770,11 +1867,12 @@
         <v>28</v>
       </c>
       <c r="I28" s="41"/>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="56"/>
+      <c r="K28" s="42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -1787,9 +1885,10 @@
       <c r="G29" s="46"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
-      <c r="J29" s="45"/>
-    </row>
-    <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="54"/>
+      <c r="K29" s="45"/>
+    </row>
+    <row r="30" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="37">
         <v>5</v>
       </c>
@@ -1812,11 +1911,12 @@
         <v>28</v>
       </c>
       <c r="I30" s="41"/>
-      <c r="J30" s="42" t="s">
+      <c r="J30" s="56"/>
+      <c r="K30" s="42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="41"/>
@@ -1829,9 +1929,10 @@
       <c r="G31" s="43"/>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="56"/>
+      <c r="K31" s="42"/>
+    </row>
+    <row r="32" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="41"/>
@@ -1844,9 +1945,10 @@
       <c r="G32" s="43"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-    </row>
-    <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="56"/>
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="41"/>
@@ -1859,9 +1961,10 @@
       <c r="G33" s="43"/>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
-      <c r="J33" s="42"/>
-    </row>
-    <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="56"/>
+      <c r="K33" s="42"/>
+    </row>
+    <row r="34" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="41"/>
@@ -1874,9 +1977,10 @@
       <c r="G34" s="43"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
-    </row>
-    <row r="35" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="56"/>
+      <c r="K34" s="42"/>
+    </row>
+    <row r="35" spans="2:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="41"/>
@@ -1889,9 +1993,10 @@
       <c r="G35" s="43"/>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
-    </row>
-    <row r="36" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="56"/>
+      <c r="K35" s="42"/>
+    </row>
+    <row r="36" spans="2:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="18" t="s">
@@ -1910,11 +2015,12 @@
         <v>94</v>
       </c>
       <c r="I36" s="18"/>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="57"/>
+      <c r="K36" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="135" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11" ht="135" x14ac:dyDescent="0.15">
       <c r="B37" s="15">
         <v>6</v>
       </c>
@@ -1937,11 +2043,12 @@
         <v>130</v>
       </c>
       <c r="I37" s="13"/>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="57"/>
+      <c r="K37" s="31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="41">
         <v>7</v>
       </c>
@@ -1964,11 +2071,12 @@
         <v>130</v>
       </c>
       <c r="I38" s="41"/>
-      <c r="J38" s="47" t="s">
+      <c r="J38" s="56"/>
+      <c r="K38" s="47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
       <c r="D39" s="41"/>
@@ -1981,9 +2089,10 @@
       <c r="G39" s="42"/>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J39" s="56"/>
+      <c r="K39" s="42"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
       <c r="D40" s="41" t="s">
@@ -2002,11 +2111,12 @@
         <v>28</v>
       </c>
       <c r="I40" s="41"/>
-      <c r="J40" s="47" t="s">
+      <c r="J40" s="56"/>
+      <c r="K40" s="47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
@@ -2019,9 +2129,10 @@
       <c r="G41" s="42"/>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
-      <c r="J41" s="42"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J41" s="56"/>
+      <c r="K41" s="42"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
@@ -2034,9 +2145,10 @@
       <c r="G42" s="42"/>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="2:10" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="J42" s="56"/>
+      <c r="K42" s="42"/>
+    </row>
+    <row r="43" spans="2:11" ht="256.5" x14ac:dyDescent="0.15">
       <c r="B43" s="37">
         <v>8</v>
       </c>
@@ -2059,11 +2171,12 @@
         <v>130</v>
       </c>
       <c r="I43" s="13"/>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="57"/>
+      <c r="K43" s="31" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
       <c r="D44" s="24" t="s">
@@ -2080,9 +2193,10 @@
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="27"/>
-    </row>
-    <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="J44" s="57"/>
+      <c r="K44" s="27"/>
+    </row>
+    <row r="45" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="24" t="s">
@@ -2099,9 +2213,10 @@
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="27"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J45" s="57"/>
+      <c r="K45" s="27"/>
+    </row>
+    <row r="46" spans="2:11" ht="54" x14ac:dyDescent="0.15">
       <c r="B46" s="41">
         <v>9</v>
       </c>
@@ -2122,11 +2237,14 @@
         <v>97</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="K46" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
       <c r="D47" s="13" t="s">
@@ -2145,11 +2263,14 @@
         <v>99</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="K47" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B48" s="41">
         <v>10</v>
       </c>
@@ -2172,11 +2293,12 @@
         <v>28</v>
       </c>
       <c r="I48" s="15"/>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="57"/>
+      <c r="K48" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
       <c r="D49" s="21" t="s">
@@ -2195,9 +2317,10 @@
         <v>28</v>
       </c>
       <c r="I49" s="15"/>
-      <c r="J49" s="27"/>
-    </row>
-    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="J49" s="57"/>
+      <c r="K49" s="27"/>
+    </row>
+    <row r="50" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
       <c r="D50" s="15" t="s">
@@ -2216,9 +2339,10 @@
         <v>28</v>
       </c>
       <c r="I50" s="15"/>
-      <c r="J50" s="27"/>
-    </row>
-    <row r="51" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="J50" s="57"/>
+      <c r="K50" s="27"/>
+    </row>
+    <row r="51" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
       <c r="D51" s="21" t="s">
@@ -2237,11 +2361,12 @@
         <v>97</v>
       </c>
       <c r="I51" s="15"/>
-      <c r="J51" s="31" t="s">
+      <c r="J51" s="57"/>
+      <c r="K51" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
       <c r="D52" s="15" t="s">
@@ -2260,11 +2385,12 @@
         <v>28</v>
       </c>
       <c r="I52" s="15"/>
-      <c r="J52" s="33" t="s">
+      <c r="J52" s="57"/>
+      <c r="K52" s="33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="37">
         <v>11</v>
       </c>
@@ -2287,11 +2413,14 @@
         <v>97</v>
       </c>
       <c r="I53" s="41"/>
-      <c r="J53" s="42" t="s">
+      <c r="J53" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K53" s="42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="41"/>
@@ -2304,9 +2433,10 @@
       <c r="G54" s="44"/>
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
-      <c r="J54" s="42"/>
-    </row>
-    <row r="55" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J54" s="61"/>
+      <c r="K54" s="42"/>
+    </row>
+    <row r="55" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
       <c r="D55" s="41"/>
@@ -2319,9 +2449,10 @@
       <c r="G55" s="44"/>
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="42"/>
-    </row>
-    <row r="56" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J55" s="61"/>
+      <c r="K55" s="42"/>
+    </row>
+    <row r="56" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
       <c r="D56" s="41"/>
@@ -2334,9 +2465,10 @@
       <c r="G56" s="44"/>
       <c r="H56" s="41"/>
       <c r="I56" s="41"/>
-      <c r="J56" s="42"/>
-    </row>
-    <row r="57" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J56" s="61"/>
+      <c r="K56" s="42"/>
+    </row>
+    <row r="57" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
       <c r="D57" s="41"/>
@@ -2349,9 +2481,10 @@
       <c r="G57" s="44"/>
       <c r="H57" s="41"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="42"/>
-    </row>
-    <row r="58" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J57" s="61"/>
+      <c r="K57" s="42"/>
+    </row>
+    <row r="58" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
       <c r="D58" s="41"/>
@@ -2364,9 +2497,10 @@
       <c r="G58" s="44"/>
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
-      <c r="J58" s="42"/>
-    </row>
-    <row r="59" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J58" s="61"/>
+      <c r="K58" s="42"/>
+    </row>
+    <row r="59" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
       <c r="D59" s="41"/>
@@ -2379,9 +2513,10 @@
       <c r="G59" s="44"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
-      <c r="J59" s="42"/>
-    </row>
-    <row r="60" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J59" s="61"/>
+      <c r="K59" s="42"/>
+    </row>
+    <row r="60" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
       <c r="D60" s="37" t="s">
@@ -2400,11 +2535,12 @@
         <v>130</v>
       </c>
       <c r="I60" s="37"/>
-      <c r="J60" s="40" t="s">
+      <c r="J60" s="54"/>
+      <c r="K60" s="40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
@@ -2417,9 +2553,10 @@
       <c r="G61" s="35"/>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-    </row>
-    <row r="62" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J61" s="58"/>
+      <c r="K61" s="38"/>
+    </row>
+    <row r="62" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
@@ -2432,9 +2569,10 @@
       <c r="G62" s="35"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-    </row>
-    <row r="63" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J62" s="58"/>
+      <c r="K62" s="38"/>
+    </row>
+    <row r="63" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
@@ -2447,9 +2585,10 @@
       <c r="G63" s="36"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J63" s="55"/>
+      <c r="K63" s="39"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" s="15">
         <v>12</v>
       </c>
@@ -2462,22 +2601,34 @@
       <c r="G64" s="17"/>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
-      <c r="J64" s="27"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="86">
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J53:J59"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="J25:J27"/>
     <mergeCell ref="G30:G35"/>
     <mergeCell ref="H30:H35"/>
     <mergeCell ref="C30:C36"/>
     <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="K30:K35"/>
     <mergeCell ref="D30:D35"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="G10:G14"/>
     <mergeCell ref="H10:H14"/>
@@ -2486,9 +2637,9 @@
     <mergeCell ref="G25:G27"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="K15:K24"/>
     <mergeCell ref="I5:I9"/>
     <mergeCell ref="I10:I14"/>
     <mergeCell ref="I15:I24"/>
@@ -2505,14 +2656,14 @@
     <mergeCell ref="C5:C24"/>
     <mergeCell ref="H53:H59"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K42"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="C38:C42"/>
@@ -2528,14 +2679,14 @@
     <mergeCell ref="G60:G63"/>
     <mergeCell ref="H60:H63"/>
     <mergeCell ref="I60:I63"/>
-    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="K60:K63"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="D60:D63"/>
     <mergeCell ref="C53:C63"/>
     <mergeCell ref="B53:B63"/>
     <mergeCell ref="I53:I59"/>
-    <mergeCell ref="J53:J59"/>
+    <mergeCell ref="K53:K59"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="C48:C52"/>
@@ -2544,17 +2695,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin"/>
-    <hyperlink ref="J38" r:id="rId2"/>
-    <hyperlink ref="J40" r:id="rId3"/>
-    <hyperlink ref="J46" r:id="rId4"/>
-    <hyperlink ref="J47" r:id="rId5"/>
-    <hyperlink ref="J48" r:id="rId6"/>
-    <hyperlink ref="J51" r:id="rId7"/>
-    <hyperlink ref="J52" r:id="rId8"/>
-    <hyperlink ref="J60" r:id="rId9"/>
-    <hyperlink ref="J43" r:id="rId10"/>
-    <hyperlink ref="J37" r:id="rId11"/>
+    <hyperlink ref="K3" r:id="rId1" display="http://192.168.1.80/cgi-bin/cfgMgrCgi.cgi?FunctionName=Function_Login&amp;UserName=admin&amp;Passwd=admin"/>
+    <hyperlink ref="K38" r:id="rId2"/>
+    <hyperlink ref="K40" r:id="rId3"/>
+    <hyperlink ref="K46" r:id="rId4"/>
+    <hyperlink ref="K47" r:id="rId5"/>
+    <hyperlink ref="K48" r:id="rId6"/>
+    <hyperlink ref="K51" r:id="rId7"/>
+    <hyperlink ref="K52" r:id="rId8"/>
+    <hyperlink ref="K60" r:id="rId9"/>
+    <hyperlink ref="K43" r:id="rId10"/>
+    <hyperlink ref="K37" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>

--- a/web页面接口设计.xlsx
+++ b/web页面接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="161">
   <si>
     <t>页面名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,22 +305,6 @@
   </si>
   <si>
     <t>Function_NetConfigSave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-recordsFiltered:记录总个数
-draw:直接返回页面给的值
-recordsTotal：同recordsFiltered
-data:[
-    {
-     fileName:最大100个字符
-     modifyTime:修改日期，格式
-       YYYY-MM-DD hh:mm:ss
-     sizeMB:
-     url:
-     },…
-    ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -703,31 +687,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日志导出应让用户选择存放路径，如果不支持选择路径应在下载完毕时提示用户文件存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此操作将清除系统所有日志，需用户二次确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、未进行弹出警告信息“此操作将清除系统所有日志，不可恢复”让用户进行二次确认；
-2、IE 10下多次点击清除日志按钮后失效；
-3、将“清空日志”改为“清除所有日志”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入密码需支持隐式输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、输入密码需支持隐式输入；
-2、校验规则：当前版本号与升级版本号不同时方可进行升级，无需校验文件名；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、修改IPv4等配置点击保存成功后，进入其他分页，再返回到网络设置页时，显示的网络设置不是最后一次配置的网络参数；
-2、勾选自动获取后，MAC地址应该是可配置状态，且不能把其他IPv4参数置成0，应为从config.xml中获取到的值；</t>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+recordsFiltered:记录总个数
+draw:直接返回页面给的值
+recordsTotal：同recordsFiltered
+data:[
+    {
+     fileName:最大100个字符
+     modifyTime:修改日期，格式
+       YYYY-MM-DD hh:mm:ss
+     sizeMB:
+     url:
+     month:
+     },…
+    ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,6 +1133,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1181,12 +1168,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1692,10 +1673,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14:H23"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1734,16 +1715,16 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>11</v>
@@ -1773,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K2" s="64"/>
       <c r="L2" s="76" t="s">
@@ -1821,7 +1802,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K4" s="66"/>
       <c r="L4" s="82" t="s">
@@ -1916,7 +1897,7 @@
         <v>28</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K9" s="66"/>
       <c r="L9" s="73" t="s">
@@ -2010,12 +1991,12 @@
       <c r="I14" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="95" t="s">
-        <v>164</v>
+      <c r="J14" s="85" t="s">
+        <v>159</v>
       </c>
       <c r="K14" s="66"/>
       <c r="L14" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
@@ -2031,7 +2012,7 @@
       <c r="G15" s="78"/>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
-      <c r="J15" s="96"/>
+      <c r="J15" s="86"/>
       <c r="K15" s="66"/>
       <c r="L15" s="73"/>
     </row>
@@ -2048,7 +2029,7 @@
       <c r="G16" s="78"/>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
-      <c r="J16" s="96"/>
+      <c r="J16" s="86"/>
       <c r="K16" s="66"/>
       <c r="L16" s="73"/>
     </row>
@@ -2065,7 +2046,7 @@
       <c r="G17" s="78"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
-      <c r="J17" s="96"/>
+      <c r="J17" s="86"/>
       <c r="K17" s="66"/>
       <c r="L17" s="73"/>
     </row>
@@ -2082,7 +2063,7 @@
       <c r="G18" s="78"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
-      <c r="J18" s="96"/>
+      <c r="J18" s="86"/>
       <c r="K18" s="66"/>
       <c r="L18" s="73"/>
     </row>
@@ -2099,7 +2080,7 @@
       <c r="G19" s="78"/>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
-      <c r="J19" s="96"/>
+      <c r="J19" s="86"/>
       <c r="K19" s="66"/>
       <c r="L19" s="73"/>
     </row>
@@ -2116,7 +2097,7 @@
       <c r="G20" s="78"/>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
-      <c r="J20" s="96"/>
+      <c r="J20" s="86"/>
       <c r="K20" s="66"/>
       <c r="L20" s="73"/>
     </row>
@@ -2133,7 +2114,7 @@
       <c r="G21" s="78"/>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
-      <c r="J21" s="96"/>
+      <c r="J21" s="86"/>
       <c r="K21" s="66"/>
       <c r="L21" s="73"/>
     </row>
@@ -2150,7 +2131,7 @@
       <c r="G22" s="78"/>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
-      <c r="J22" s="96"/>
+      <c r="J22" s="86"/>
       <c r="K22" s="66"/>
       <c r="L22" s="73"/>
     </row>
@@ -2167,7 +2148,7 @@
       <c r="G23" s="79"/>
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
-      <c r="J23" s="96"/>
+      <c r="J23" s="86"/>
       <c r="K23" s="66"/>
       <c r="L23" s="73"/>
     </row>
@@ -2195,11 +2176,11 @@
         <v>27</v>
       </c>
       <c r="J24" s="81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K24" s="66"/>
       <c r="L24" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
@@ -2247,7 +2228,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>34</v>
@@ -2260,11 +2241,11 @@
         <v>27</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K27" s="66"/>
       <c r="L27" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
@@ -2272,17 +2253,17 @@
       <c r="C28" s="69"/>
       <c r="D28" s="69"/>
       <c r="E28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="86"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
       <c r="J28" s="74"/>
       <c r="K28" s="64"/>
-      <c r="L28" s="85"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="69">
@@ -2292,27 +2273,27 @@
         <v>42</v>
       </c>
       <c r="D29" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="F29" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="67" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="H29" s="66"/>
       <c r="I29" s="68" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K29" s="66"/>
       <c r="L29" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2320,7 +2301,7 @@
       <c r="C30" s="70"/>
       <c r="D30" s="68"/>
       <c r="E30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>41</v>
@@ -2371,10 +2352,10 @@
       <c r="C33" s="70"/>
       <c r="D33" s="68"/>
       <c r="E33" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="66"/>
@@ -2404,27 +2385,27 @@
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
       <c r="D35" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="F35" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="G35" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" s="44"/>
       <c r="I35" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J35" s="52" t="s">
         <v>61</v>
       </c>
       <c r="K35" s="41"/>
       <c r="L35" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="135" x14ac:dyDescent="0.15">
@@ -2435,27 +2416,27 @@
         <v>43</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>61</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" s="44"/>
       <c r="I36" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
@@ -2466,10 +2447,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>52</v>
@@ -2479,14 +2460,14 @@
       </c>
       <c r="H37" s="66"/>
       <c r="I37" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J37" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K37" s="66"/>
       <c r="L37" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.15">
@@ -2513,24 +2494,24 @@
         <v>49</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G39" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H39" s="66"/>
       <c r="I39" s="68" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K39" s="66"/>
       <c r="L39" s="76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
@@ -2538,7 +2519,7 @@
       <c r="C40" s="68"/>
       <c r="D40" s="68"/>
       <c r="E40" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>51</v>
@@ -2575,34 +2556,34 @@
         <v>55</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42" s="44"/>
       <c r="I42" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J42" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B43" s="70"/>
       <c r="C43" s="70"/>
       <c r="D43" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>60</v>
@@ -2611,14 +2592,14 @@
         <v>61</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H43" s="44"/>
       <c r="I43" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J43" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K43" s="41"/>
       <c r="L43" s="27"/>
@@ -2627,23 +2608,23 @@
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
       <c r="D44" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>60</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H44" s="44"/>
       <c r="I44" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J44" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K44" s="41"/>
       <c r="L44" s="27"/>
@@ -2656,52 +2637,52 @@
         <v>56</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H45" s="44"/>
       <c r="I45" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K45" s="42"/>
       <c r="L45" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B46" s="68"/>
       <c r="C46" s="68"/>
       <c r="D46" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>58</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H46" s="44"/>
       <c r="I46" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J46" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K46" s="42"/>
       <c r="L46" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
@@ -2712,10 +2693,10 @@
         <v>59</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>52</v>
@@ -2723,10 +2704,10 @@
       <c r="G47" s="54"/>
       <c r="H47" s="39"/>
       <c r="I47" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J47" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K47" s="43"/>
       <c r="L47" s="37"/>
@@ -2735,7 +2716,7 @@
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
       <c r="D48" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>60</v>
@@ -2744,43 +2725,43 @@
         <v>61</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H48" s="44"/>
       <c r="I48" s="21" t="s">
         <v>27</v>
       </c>
       <c r="J48" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="54" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B49" s="70"/>
       <c r="C49" s="70"/>
       <c r="D49" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="F49" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>27</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K49" s="41"/>
       <c r="L49" s="27"/>
@@ -2789,25 +2770,25 @@
       <c r="B50" s="70"/>
       <c r="C50" s="70"/>
       <c r="D50" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>62</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>27</v>
       </c>
       <c r="J50" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K50" s="41"/>
       <c r="L50" s="27"/>
@@ -2816,25 +2797,25 @@
       <c r="B51" s="70"/>
       <c r="C51" s="70"/>
       <c r="D51" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="46" t="s">
-        <v>140</v>
-      </c>
       <c r="F51" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" s="48" t="s">
         <v>53</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>27</v>
       </c>
       <c r="J51" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K51" s="41"/>
       <c r="L51" s="36"/>
@@ -2843,7 +2824,7 @@
       <c r="B52" s="70"/>
       <c r="C52" s="70"/>
       <c r="D52" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>60</v>
@@ -2855,17 +2836,17 @@
         <v>62</v>
       </c>
       <c r="H52" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J52" s="61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="27" x14ac:dyDescent="0.15">
@@ -2881,20 +2862,20 @@
         <v>61</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H53" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>27</v>
       </c>
       <c r="J53" s="61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K53" s="41"/>
       <c r="L53" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2908,24 +2889,24 @@
         <v>65</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H54" s="66"/>
       <c r="I54" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="J54" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="K54" s="93"/>
+        <v>95</v>
+      </c>
+      <c r="J54" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="K54" s="95"/>
       <c r="L54" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2933,7 +2914,7 @@
       <c r="C55" s="70"/>
       <c r="D55" s="68"/>
       <c r="E55" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>67</v>
@@ -2941,8 +2922,8 @@
       <c r="G55" s="80"/>
       <c r="H55" s="68"/>
       <c r="I55" s="68"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="94"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="96"/>
       <c r="L55" s="73"/>
     </row>
     <row r="56" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2950,7 +2931,7 @@
       <c r="C56" s="70"/>
       <c r="D56" s="68"/>
       <c r="E56" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>39</v>
@@ -2958,8 +2939,8 @@
       <c r="G56" s="80"/>
       <c r="H56" s="68"/>
       <c r="I56" s="68"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="94"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="96"/>
       <c r="L56" s="73"/>
     </row>
     <row r="57" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2975,8 +2956,8 @@
       <c r="G57" s="80"/>
       <c r="H57" s="68"/>
       <c r="I57" s="68"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="94"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="96"/>
       <c r="L57" s="73"/>
     </row>
     <row r="58" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2992,8 +2973,8 @@
       <c r="G58" s="80"/>
       <c r="H58" s="68"/>
       <c r="I58" s="68"/>
-      <c r="J58" s="91"/>
-      <c r="K58" s="94"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="96"/>
       <c r="L58" s="73"/>
     </row>
     <row r="59" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -3001,16 +2982,16 @@
       <c r="C59" s="70"/>
       <c r="D59" s="68"/>
       <c r="E59" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="68"/>
       <c r="I59" s="68"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="94"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="96"/>
       <c r="L59" s="73"/>
     </row>
     <row r="60" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3026,35 +3007,35 @@
       <c r="G60" s="80"/>
       <c r="H60" s="68"/>
       <c r="I60" s="68"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="94"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="96"/>
       <c r="L60" s="73"/>
     </row>
     <row r="61" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="70"/>
       <c r="C61" s="70"/>
       <c r="D61" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H61" s="64"/>
       <c r="I61" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="J61" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="J61" s="89" t="s">
         <v>159</v>
       </c>
       <c r="K61" s="64"/>
-      <c r="L61" s="89" t="s">
-        <v>123</v>
+      <c r="L61" s="91" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3062,7 +3043,7 @@
       <c r="C62" s="70"/>
       <c r="D62" s="70"/>
       <c r="E62" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>67</v>
@@ -3070,8 +3051,8 @@
       <c r="G62" s="78"/>
       <c r="H62" s="70"/>
       <c r="I62" s="70"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="92"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="94"/>
       <c r="L62" s="70"/>
     </row>
     <row r="63" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3079,7 +3060,7 @@
       <c r="C63" s="70"/>
       <c r="D63" s="70"/>
       <c r="E63" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>39</v>
@@ -3087,8 +3068,8 @@
       <c r="G63" s="78"/>
       <c r="H63" s="70"/>
       <c r="I63" s="70"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="92"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="94"/>
       <c r="L63" s="70"/>
     </row>
     <row r="64" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3104,15 +3085,15 @@
       <c r="G64" s="79"/>
       <c r="H64" s="71"/>
       <c r="I64" s="71"/>
-      <c r="J64" s="88"/>
+      <c r="J64" s="90"/>
       <c r="K64" s="65"/>
       <c r="L64" s="71"/>
     </row>
-    <row r="65" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B65" s="71"/>
       <c r="C65" s="71"/>
       <c r="D65" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>57</v>
@@ -3121,16 +3102,16 @@
         <v>61</v>
       </c>
       <c r="G65" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H65" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I65" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J65" s="61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K65" s="40"/>
       <c r="L65" s="34"/>
